--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>目录</t>
   </si>
   <si>
-    <t>题目23-S2</t>
-  </si>
-  <si>
     <t>23-S1</t>
   </si>
   <si>
@@ -58,18 +55,27 @@
     <t>1.2线性规划(LP)</t>
   </si>
   <si>
+    <t>Q1：制定LP问题，Q2：制定NLP问题</t>
+  </si>
+  <si>
     <t>2.线性规划 : 单纯形法</t>
   </si>
   <si>
     <t>2.1单纯形法</t>
   </si>
   <si>
+    <t>Q1：解决LP问题</t>
+  </si>
+  <si>
     <t>2.2对偶性</t>
   </si>
   <si>
     <t>2.3灵敏度分析</t>
   </si>
   <si>
+    <t>Q1：削减预算</t>
+  </si>
+  <si>
     <t>2.4对偶性 和 灵敏度分析</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t>4.3.1.梯度向量和Hessian矩阵</t>
   </si>
   <si>
+    <t>Q2：Hession negatitve</t>
+  </si>
+  <si>
     <t>4.3.2.最优性准则</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
   </si>
   <si>
     <t>4.3.4.具有等约束的多变量优化</t>
+  </si>
+  <si>
+    <t>Q2：L，local min</t>
   </si>
   <si>
     <t>4.3.5.不等式约束下的优化</t>
@@ -380,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +401,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -396,6 +414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +757,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,16 +781,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -775,89 +799,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,16 +891,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,22 +1226,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="10.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="32.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1218,283 +1254,295 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="4" t="s">
+    <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="5" t="s">
+    <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="6" t="s">
+    <row r="5" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="5" t="s">
+    <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="6" t="s">
+    <row r="8" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="6" t="s">
+    <row r="9" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="6" t="s">
+    <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="6" t="s">
+    <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="6" t="s">
+    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="6" t="s">
+    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="6" t="s">
+    <row r="15" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="6" t="s">
+    <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="6" t="s">
+    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="6" t="s">
+    <row r="18" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="6" t="s">
+    <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="4" t="s">
+    <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="6" t="s">
+    <row r="21" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="6" t="s">
+    <row r="22" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A22" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="6" t="s">
+    <row r="23" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="6" t="s">
+    <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="6" t="s">
+    <row r="25" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A25" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="6" t="s">
+    <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="6" t="s">
+    <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="6" t="s">
+    <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A28" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="6" t="s">
+    <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A29" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="4" t="s">
+    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="6" t="s">
+    <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="6" t="s">
+    <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="6" t="s">
+    <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="6" t="s">
+    <row r="34" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="6" t="s">
+    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A35" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="6" t="s">
+    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A36" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="4" t="s">
+    <row r="37" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="5" t="s">
+    <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A38" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="6" t="s">
+    <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A39" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="5" t="s">
+    <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A40" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="6" t="s">
+    <row r="41" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="6" t="s">
+    <row r="42" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="6" t="s">
+    <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="6" t="s">
+    <row r="44" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="6" t="s">
+    <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="6" t="s">
+    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="5" t="s">
+    <row r="47" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="6" t="s">
+    <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="6" t="s">
+    <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="6" t="s">
+    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="6" t="s">
+    <row r="51" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="6" t="s">
+    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A55" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A56" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>目录</t>
   </si>
@@ -115,12 +115,33 @@
     <t>4.3.4.具有等约束的多变量优化</t>
   </si>
   <si>
-    <t>Q2：L，local min</t>
+    <t>Q2：L+Test optimal</t>
+  </si>
+  <si>
+    <t>4.3.4.1 拉格朗日乘数法</t>
+  </si>
+  <si>
+    <t>4.3.4.2 定理（充分条件）</t>
   </si>
   <si>
     <t>4.3.5.不等式约束下的优化</t>
   </si>
   <si>
+    <t>4.3.5.1 拉格朗日乘数法</t>
+  </si>
+  <si>
+    <t>4.3.5.2 Convex 函数</t>
+  </si>
+  <si>
+    <t>4.3.5.3 K-T充分定理</t>
+  </si>
+  <si>
+    <t>4.3.5.4 灵敏度分析 B + ΔB</t>
+  </si>
+  <si>
+    <t>Q2：B+ΔB</t>
+  </si>
+  <si>
     <t>随机过程</t>
   </si>
   <si>
@@ -137,6 +158,9 @@
   </si>
   <si>
     <t>5.离散时间马尔可夫链</t>
+  </si>
+  <si>
+    <t>Q3：状态空间，转移概率矩阵P</t>
   </si>
   <si>
     <t>6.CK方程</t>
@@ -881,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,6 +921,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -912,7 +939,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,12 +1259,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1256,293 +1289,329 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="5" t="s">
+    <row r="23" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A23" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="7" t="s">
+    <row r="24" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A24" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="7" t="s">
+    <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="7" t="s">
+    <row r="26" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A26" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="7" t="s">
+    <row r="27" s="5" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A27" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A28" s="7" t="s">
+    <row r="28" s="5" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A28" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="7" t="s">
+      <c r="B28" s="13" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="29" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="7" t="s">
-        <v>37</v>
+      <c r="A30" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="7" t="s">
-        <v>38</v>
+      <c r="A31" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="7" t="s">
-        <v>39</v>
+      <c r="A32" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="34" s="4" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="7" t="s">
-        <v>42</v>
+      <c r="A35" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="7" t="s">
-        <v>43</v>
+      <c r="A36" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>44</v>
+      <c r="A37" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="7" t="s">
-        <v>45</v>
+      <c r="A38" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="5" t="s">
+      <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="6" t="s">
+    <row r="40" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A40" s="6" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A41" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="6" t="s">
-        <v>51</v>
+      <c r="A43" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="7" t="s">
-        <v>52</v>
+      <c r="A45" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="7" t="s">
-        <v>59</v>
+      <c r="A52" s="8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="7" t="s">
-        <v>60</v>
+      <c r="A53" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="7" t="s">
-        <v>61</v>
+      <c r="A54" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="7" t="s">
-        <v>62</v>
+      <c r="A55" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="7" t="s">
-        <v>63</v>
+      <c r="A56" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A57" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A58" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A59" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A60" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A61" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" s="4" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
   <si>
     <t>目录</t>
   </si>
@@ -160,13 +160,116 @@
     <t>5.离散时间马尔可夫链</t>
   </si>
   <si>
-    <t>Q3：状态空间，转移概率矩阵P</t>
+    <r>
+      <t>5.1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+  </si>
+  <si>
+    <t>Q3：状态空间</t>
+  </si>
+  <si>
+    <t>5.2.马尔可夫性质</t>
+  </si>
+  <si>
+    <t>5.3.状态i的逗留时间Ti</t>
+  </si>
+  <si>
+    <t>Q3：平均停留时间</t>
+  </si>
+  <si>
+    <t>5.4.转移概率</t>
+  </si>
+  <si>
+    <r>
+      <t>5.5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转移概率矩阵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TPM</t>
+    </r>
+  </si>
+  <si>
+    <t>Q3：转移概率矩阵P</t>
+  </si>
+  <si>
+    <t>5.6.状态概率</t>
+  </si>
+  <si>
+    <t>Q3：四周后概率</t>
+  </si>
+  <si>
+    <t>5.7.稳态概率</t>
+  </si>
+  <si>
+    <t>Q3：DTMC的稳态概率</t>
+  </si>
+  <si>
+    <t>5.8平均产量 R</t>
+  </si>
+  <si>
+    <t>5.9稳态可用性</t>
+  </si>
+  <si>
+    <t>5.10平均完工时间</t>
   </si>
   <si>
     <t>6.CK方程</t>
   </si>
   <si>
     <t>7.连续时间马尔可夫链</t>
+  </si>
+  <si>
+    <t>7.1定义</t>
+  </si>
+  <si>
+    <t>7.2.马尔可夫性质</t>
+  </si>
+  <si>
+    <t>7.3.状态i的逗留时间Ti</t>
+  </si>
+  <si>
+    <t>7.4.转移概率</t>
+  </si>
+  <si>
+    <t>7.5.转移概率矩阵 TPM</t>
+  </si>
+  <si>
+    <t>7.5.1 过渡率矩阵TRM</t>
+  </si>
+  <si>
+    <t>7.6.状态概率</t>
+  </si>
+  <si>
+    <t>7.7.稳态概率</t>
+  </si>
+  <si>
+    <t>7.8平均产量 R</t>
+  </si>
+  <si>
+    <t>7.9稳态可用性</t>
+  </si>
+  <si>
+    <t>7.10平均完工时间</t>
   </si>
   <si>
     <t>8.CK方程</t>
@@ -257,7 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +375,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -415,8 +529,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,13 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,177 +900,195 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,12 +1402,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:B34"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1274,344 +1417,461 @@
     <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A9" s="9" t="s">
+    <row r="9" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A18" s="9" t="s">
+    <row r="18" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A21" s="9" t="s">
+    <row r="21" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="11" t="s">
+    <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="11" t="s">
+    <row r="23" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="11" t="s">
+    <row r="24" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="11" t="s">
+    <row r="25" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="11" t="s">
+    <row r="26" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="11" t="s">
+    <row r="27" s="8" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A27" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A28" s="12" t="s">
+    <row r="28" s="8" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="8" t="s">
+    <row r="30" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="8" t="s">
+    <row r="32" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="8" t="s">
+    <row r="33" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" s="4" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A34" s="9" t="s">
+    <row r="34" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="10" t="s">
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A35" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A35" s="8" t="s">
+      <c r="B35" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="8" t="s">
+    <row r="36" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A36" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A37" s="8" t="s">
+    <row r="37" s="10" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A37" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A39" s="8" t="s">
+    <row r="38" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A38" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A40" s="6" t="s">
+    <row r="39" s="10" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A39" s="18" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A41" s="8" t="s">
+      <c r="B39" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="8" t="s">
+    <row r="40" s="11" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A40" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="8" t="s">
+    <row r="41" s="10" customFormat="1" ht="15.5" spans="1:2">
+      <c r="A41" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="45" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="8" t="s">
+      <c r="B41" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="8" t="s">
+    <row r="42" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A42" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="6" t="s">
+    <row r="43" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A43" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="7" t="s">
+    <row r="44" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A44" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="8" t="s">
+    <row r="45" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A45" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="7" t="s">
+    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A46" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="8" t="s">
+    <row r="47" s="11" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A47" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="8" t="s">
+    <row r="48" s="11" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A48" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="8" t="s">
+    <row r="49" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A49" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="8" t="s">
+    <row r="50" s="11" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A50" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="8" t="s">
+    <row r="51" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A51" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="8" t="s">
+    <row r="52" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A52" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="7" t="s">
+    <row r="53" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A53" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="8" t="s">
+    <row r="54" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A54" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="8" t="s">
+    <row r="55" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A55" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="8" t="s">
+    <row r="56" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A56" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="8" t="s">
+    <row r="57" s="11" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A57" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" s="4" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="8" t="s">
+    <row r="58" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A58" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A61" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A68" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A69" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A71" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A72" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A73" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A75" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A76" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A77" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A78" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A79" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A80" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1624,14 +1884,145 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A12" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A14" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A21" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>目录</t>
   </si>
@@ -160,17 +160,7 @@
     <t>5.离散时间马尔可夫链</t>
   </si>
   <si>
-    <r>
-      <t>5.1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>定义</t>
-    </r>
+    <t>5.1.定义</t>
   </si>
   <si>
     <t>Q3：状态空间</t>
@@ -188,25 +178,7 @@
     <t>5.4.转移概率</t>
   </si>
   <si>
-    <r>
-      <t>5.5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转移概率矩阵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Helvetica"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TPM</t>
-    </r>
+    <t>5.5.转移概率矩阵 TPM</t>
   </si>
   <si>
     <t>Q3：转移概率矩阵P</t>
@@ -293,6 +265,9 @@
     <t>3.M/M/1排队模型</t>
   </si>
   <si>
+    <t>Q4</t>
+  </si>
+  <si>
     <t>4.M/M/1/N 排队模型</t>
   </si>
   <si>
@@ -300,6 +275,27 @@
   </si>
   <si>
     <t>6.批量到达队列(Mb/M/1)</t>
+  </si>
+  <si>
+    <t>7.利用率 ρ</t>
+  </si>
+  <si>
+    <t>8.空的概率 π0</t>
+  </si>
+  <si>
+    <t>9.k个顾客的概率 πk</t>
+  </si>
+  <si>
+    <t>10.系统中的平均顾客数 L</t>
+  </si>
+  <si>
+    <t>11.排队的平均顾客数 Q</t>
+  </si>
+  <si>
+    <t>12.顾客在系统的平均时间 W</t>
+  </si>
+  <si>
+    <t>13.排队的平均等待时间 D</t>
   </si>
   <si>
     <t>决策分析</t>
@@ -360,7 +356,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,15 +371,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="Helvetica"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -528,11 +535,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -900,137 +902,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,43 +1054,73 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1402,476 +1434,530 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:B40"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="32.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="32.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="1" max="1" width="32.1818181818182" style="15" customWidth="1"/>
+    <col min="2" max="2" width="35.0363636363636" style="15" customWidth="1"/>
+    <col min="3" max="3" width="8" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:1">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="9" customFormat="1" spans="1:1">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="10" customFormat="1" spans="1:1">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="10" customFormat="1" spans="1:2">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="9" customFormat="1" spans="1:1">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:2">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="10" customFormat="1" spans="1:1">
+      <c r="A8" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:2">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="10" customFormat="1" spans="1:1">
+      <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="9" customFormat="1" spans="1:1">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="10" customFormat="1" spans="1:1">
+      <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="10" customFormat="1" spans="1:1">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="9" customFormat="1" spans="1:1">
+      <c r="A14" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="10" customFormat="1" spans="1:1">
+      <c r="A15" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="10" customFormat="1" spans="1:1">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="4" t="s">
+    <row r="17" s="10" customFormat="1" spans="1:1">
+      <c r="A17" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="10" customFormat="1" spans="1:2">
+      <c r="A18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="4" t="s">
+    <row r="19" s="10" customFormat="1" spans="1:1">
+      <c r="A19" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="10" customFormat="1" spans="1:1">
+      <c r="A20" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="10" customFormat="1" spans="1:2">
+      <c r="A21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="14" t="s">
+    <row r="22" s="10" customFormat="1" spans="1:1">
+      <c r="A22" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="14" t="s">
+    <row r="23" s="11" customFormat="1" spans="1:1">
+      <c r="A23" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="14" t="s">
+    <row r="24" s="11" customFormat="1" spans="1:1">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="14" t="s">
+    <row r="25" s="11" customFormat="1" spans="1:1">
+      <c r="A25" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="14" t="s">
+    <row r="26" s="11" customFormat="1" spans="1:1">
+      <c r="A26" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A27" s="14" t="s">
+    <row r="27" s="11" customFormat="1" spans="1:1">
+      <c r="A27" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A28" s="15" t="s">
+    <row r="28" s="11" customFormat="1" spans="1:2">
+      <c r="A28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A29" s="5" t="s">
+    <row r="29" s="8" customFormat="1" spans="1:1">
+      <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A30" s="4" t="s">
+    <row r="30" s="10" customFormat="1" spans="1:1">
+      <c r="A30" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A31" s="4" t="s">
+    <row r="31" s="10" customFormat="1" spans="1:1">
+      <c r="A31" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A32" s="4" t="s">
+    <row r="32" s="10" customFormat="1" spans="1:1">
+      <c r="A32" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A33" s="4" t="s">
+    <row r="33" s="10" customFormat="1" spans="1:1">
+      <c r="A33" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A34" s="17" t="s">
+    <row r="34" s="12" customFormat="1" spans="1:1">
+      <c r="A34" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A35" s="18" t="s">
+    <row r="35" s="10" customFormat="1" spans="1:2">
+      <c r="A35" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A36" s="14" t="s">
+    <row r="36" s="10" customFormat="1" spans="1:1">
+      <c r="A36" s="22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" s="10" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A37" s="15" t="s">
+    <row r="37" s="13" customFormat="1" spans="1:2">
+      <c r="A37" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A38" s="14" t="s">
+    <row r="38" s="13" customFormat="1" spans="1:1">
+      <c r="A38" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" s="10" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A39" s="18" t="s">
+    <row r="39" s="13" customFormat="1" spans="1:2">
+      <c r="A39" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" s="11" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A40" s="15" t="s">
+    <row r="40" s="14" customFormat="1" spans="1:2">
+      <c r="A40" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="21" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="1" ht="15.5" spans="1:2">
-      <c r="A41" s="15" t="s">
+    <row r="41" s="13" customFormat="1" spans="1:2">
+      <c r="A41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A42" s="14" t="s">
+    <row r="42" s="13" customFormat="1" spans="1:1">
+      <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A43" s="14" t="s">
+    <row r="43" s="13" customFormat="1" spans="1:1">
+      <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A44" s="14" t="s">
+    <row r="44" s="13" customFormat="1" spans="1:1">
+      <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A45" s="14" t="s">
+    <row r="45" s="13" customFormat="1" spans="1:1">
+      <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" s="9" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A46" s="17" t="s">
+    <row r="46" s="12" customFormat="1" spans="1:1">
+      <c r="A46" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" s="11" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A47" s="14" t="s">
+    <row r="47" s="14" customFormat="1" spans="1:1">
+      <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" s="11" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A48" s="14" t="s">
+    <row r="48" s="14" customFormat="1" spans="1:1">
+      <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A49" s="14" t="s">
+    <row r="49" s="13" customFormat="1" spans="1:1">
+      <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" s="11" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A50" s="14" t="s">
+    <row r="50" s="14" customFormat="1" spans="1:1">
+      <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A51" s="14" t="s">
+    <row r="51" s="13" customFormat="1" spans="1:1">
+      <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="13" customFormat="1" spans="1:1">
+      <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A53" s="14" t="s">
+    <row r="53" s="13" customFormat="1" spans="1:1">
+      <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A54" s="14" t="s">
+    <row r="54" s="13" customFormat="1" spans="1:1">
+      <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A55" s="14" t="s">
+    <row r="55" s="13" customFormat="1" spans="1:1">
+      <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" s="10" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A56" s="14" t="s">
+    <row r="56" s="13" customFormat="1" spans="1:1">
+      <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" s="11" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A57" s="14" t="s">
+    <row r="57" s="14" customFormat="1" spans="1:1">
+      <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A58" s="4" t="s">
+    <row r="58" s="10" customFormat="1" spans="1:1">
+      <c r="A58" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A59" s="4" t="s">
+    <row r="59" s="10" customFormat="1" spans="1:1">
+      <c r="A59" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A60" s="4" t="s">
+    <row r="60" s="10" customFormat="1" spans="1:1">
+      <c r="A60" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A61" s="5" t="s">
+    <row r="61" s="8" customFormat="1" spans="1:1">
+      <c r="A61" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A62" s="4" t="s">
+    <row r="62" s="10" customFormat="1" spans="1:1">
+      <c r="A62" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A63" s="4" t="s">
+    <row r="63" s="10" customFormat="1" spans="1:1">
+      <c r="A63" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A64" s="4" t="s">
+    <row r="64" s="10" customFormat="1" spans="1:2">
+      <c r="A64" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A65" s="4" t="s">
+      <c r="B64" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A66" s="4" t="s">
+    <row r="65" s="10" customFormat="1" spans="1:2">
+      <c r="A65" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A67" s="4" t="s">
+      <c r="B65" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:2">
+      <c r="A66" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A68" s="5" t="s">
+      <c r="B66" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="1" spans="1:2">
+      <c r="A67" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A69" s="6" t="s">
+      <c r="B67" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" s="11" customFormat="1" spans="1:1">
+      <c r="A68" s="28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A70" s="4" t="s">
+    <row r="69" s="11" customFormat="1" spans="1:1">
+      <c r="A69" s="29" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A71" s="6" t="s">
+    <row r="70" s="11" customFormat="1" spans="1:1">
+      <c r="A70" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A72" s="4" t="s">
+    <row r="71" s="11" customFormat="1" spans="1:2">
+      <c r="A71" s="24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A73" s="4" t="s">
+      <c r="B71" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" spans="1:1">
+      <c r="A72" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A74" s="4" t="s">
+    <row r="73" s="11" customFormat="1" spans="1:2">
+      <c r="A73" s="24" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A75" s="4" t="s">
+      <c r="B73" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" spans="1:1">
+      <c r="A74" s="29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A76" s="4" t="s">
+    <row r="75" s="8" customFormat="1" spans="1:1">
+      <c r="A75" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A77" s="4" t="s">
+    <row r="76" s="9" customFormat="1" spans="1:1">
+      <c r="A76" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A78" s="6" t="s">
+    <row r="77" s="10" customFormat="1" spans="1:1">
+      <c r="A77" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A79" s="4" t="s">
+    <row r="78" s="9" customFormat="1" spans="1:1">
+      <c r="A78" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A80" s="4" t="s">
+    <row r="79" s="10" customFormat="1" spans="1:1">
+      <c r="A79" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A81" s="4" t="s">
+    <row r="80" s="10" customFormat="1" spans="1:1">
+      <c r="A80" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A82" s="4" t="s">
+    <row r="81" s="10" customFormat="1" spans="1:1">
+      <c r="A81" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A83" s="4" t="s">
+    <row r="82" s="10" customFormat="1" spans="1:1">
+      <c r="A82" s="19" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="83" s="10" customFormat="1" spans="1:1">
+      <c r="A83" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" s="10" customFormat="1" spans="1:1">
+      <c r="A84" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" s="9" customFormat="1" spans="1:1">
+      <c r="A85" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" s="10" customFormat="1" spans="1:1">
+      <c r="A86" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" s="10" customFormat="1" spans="1:1">
+      <c r="A87" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" s="10" customFormat="1" spans="1:1">
+      <c r="A88" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" s="10" customFormat="1" spans="1:1">
+      <c r="A89" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" s="10" customFormat="1" spans="1:1">
+      <c r="A90" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1929,97 +2015,97 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>目录</t>
   </si>
@@ -55,7 +55,10 @@
     <t>1.2线性规划(LP)</t>
   </si>
   <si>
-    <t>Q1：制定LP问题，Q2：制定NLP问题</t>
+    <t>Q1：LP等式，Q2：NLP等式</t>
+  </si>
+  <si>
+    <t>Q1：LP等式</t>
   </si>
   <si>
     <t>2.线性规划 : 单纯形法</t>
@@ -64,7 +67,7 @@
     <t>2.1单纯形法</t>
   </si>
   <si>
-    <t>Q1：解决LP问题</t>
+    <t>Q1：解决LP问题&lt;=</t>
   </si>
   <si>
     <t>2.2对偶性</t>
@@ -85,6 +88,9 @@
     <t>3.1.运输模型</t>
   </si>
   <si>
+    <t>Q2:运输模型</t>
+  </si>
+  <si>
     <t>3.2.任务分配问题</t>
   </si>
   <si>
@@ -259,6 +265,9 @@
     <t>1.排队</t>
   </si>
   <si>
+    <t>Q4：盈亏平衡月数、最佳选择</t>
+  </si>
+  <si>
     <t>2.利特尔定律</t>
   </si>
   <si>
@@ -332,6 +341,9 @@
   </si>
   <si>
     <t>3.1. 悲观标准（Maximin标准）</t>
+  </si>
+  <si>
+    <t>Q5</t>
   </si>
   <si>
     <t>3.2. 乐观准则（Maximax）</t>
@@ -537,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +577,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +932,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,16 +956,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -950,89 +974,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,22 +1123,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1437,16 +1473,16 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" style="15" customWidth="1"/>
     <col min="2" max="2" width="35.0363636363636" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.4363636363636" style="15" customWidth="1"/>
     <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -1479,485 +1515,513 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:2">
+    <row r="5" s="10" customFormat="1" spans="1:3">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
       <c r="A6" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
       <c r="A8" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
-      <c r="A9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
       <c r="A10" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
       <c r="A11" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:1">
-      <c r="A12" s="19" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:3">
+      <c r="A12" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:1">
       <c r="A13" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
-      <c r="A18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>24</v>
+      <c r="A18" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
-      <c r="A22" s="22" t="s">
-        <v>29</v>
+      <c r="A22" s="26" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:1">
-      <c r="A23" s="22" t="s">
-        <v>30</v>
+      <c r="A23" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="1:1">
-      <c r="A24" s="22" t="s">
-        <v>31</v>
+      <c r="A24" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:1">
-      <c r="A25" s="22" t="s">
-        <v>32</v>
+      <c r="A25" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" s="11" customFormat="1" spans="1:1">
-      <c r="A26" s="22" t="s">
-        <v>33</v>
+      <c r="A26" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="1:1">
-      <c r="A27" s="22" t="s">
-        <v>34</v>
+      <c r="A27" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:2">
-      <c r="A28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>36</v>
+      <c r="A28" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:1">
       <c r="A33" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" s="12" customFormat="1" spans="1:1">
-      <c r="A34" s="25" t="s">
-        <v>42</v>
+      <c r="A34" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:2">
-      <c r="A35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>44</v>
+      <c r="A35" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:1">
-      <c r="A36" s="22" t="s">
-        <v>45</v>
+      <c r="A36" s="26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:2">
-      <c r="A37" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>47</v>
+      <c r="A37" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" spans="1:1">
-      <c r="A38" s="22" t="s">
-        <v>48</v>
+      <c r="A38" s="26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" spans="1:2">
-      <c r="A39" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>50</v>
+      <c r="A39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:2">
-      <c r="A40" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>52</v>
+      <c r="A40" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" spans="1:2">
-      <c r="A41" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>54</v>
+      <c r="A41" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
-      <c r="A42" s="22" t="s">
-        <v>55</v>
+      <c r="A42" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
-      <c r="A43" s="22" t="s">
-        <v>56</v>
+      <c r="A43" s="26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
-      <c r="A44" s="22" t="s">
-        <v>57</v>
+      <c r="A44" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
-      <c r="A45" s="22" t="s">
-        <v>58</v>
+      <c r="A45" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
-      <c r="A46" s="25" t="s">
-        <v>59</v>
+      <c r="A46" s="29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
-      <c r="A47" s="22" t="s">
-        <v>60</v>
+      <c r="A47" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
-      <c r="A48" s="22" t="s">
-        <v>61</v>
+      <c r="A48" s="26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
-      <c r="A49" s="22" t="s">
-        <v>62</v>
+      <c r="A49" s="26" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
-      <c r="A50" s="22" t="s">
-        <v>63</v>
+      <c r="A50" s="26" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
-      <c r="A51" s="22" t="s">
-        <v>64</v>
+      <c r="A51" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" s="13" customFormat="1" spans="1:1">
-      <c r="A52" s="22" t="s">
-        <v>65</v>
+      <c r="A52" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
-      <c r="A53" s="22" t="s">
-        <v>66</v>
+      <c r="A53" s="26" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" spans="1:1">
-      <c r="A54" s="22" t="s">
-        <v>67</v>
+      <c r="A54" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:1">
-      <c r="A55" s="22" t="s">
-        <v>68</v>
+      <c r="A55" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
-      <c r="A56" s="22" t="s">
-        <v>69</v>
+      <c r="A56" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
-      <c r="A57" s="22" t="s">
-        <v>70</v>
+      <c r="A57" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" s="10" customFormat="1" spans="1:1">
-      <c r="A62" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" s="10" customFormat="1" spans="1:2">
+      <c r="A62" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:2">
-      <c r="A64" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>78</v>
+      <c r="A64" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:2">
-      <c r="A65" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>78</v>
+      <c r="A65" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:2">
-      <c r="A66" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>78</v>
+      <c r="A66" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:2">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
-      <c r="A68" s="28" t="s">
-        <v>82</v>
+      <c r="A68" s="32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
-      <c r="A69" s="29" t="s">
-        <v>83</v>
+      <c r="A69" s="33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
-      <c r="A70" s="29" t="s">
-        <v>84</v>
+      <c r="A70" s="33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
-      <c r="A71" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>78</v>
+      <c r="A71" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
-      <c r="A72" s="29" t="s">
-        <v>86</v>
+      <c r="A72" s="33" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
-      <c r="A73" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>78</v>
+      <c r="A73" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
-      <c r="A74" s="29" t="s">
-        <v>88</v>
+      <c r="A74" s="33" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:1">
       <c r="A80" s="19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:1">
       <c r="A81" s="19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:1">
       <c r="A82" s="19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" s="10" customFormat="1" spans="1:1">
-      <c r="A86" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" s="10" customFormat="1" spans="1:1">
-      <c r="A87" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" s="10" customFormat="1" spans="1:1">
-      <c r="A88" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" s="10" customFormat="1" spans="1:1">
-      <c r="A89" s="19" t="s">
+    <row r="86" s="10" customFormat="1" spans="1:2">
+      <c r="A86" s="23" t="s">
         <v>103</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" s="10" customFormat="1" spans="1:2">
+      <c r="A87" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" s="10" customFormat="1" spans="1:2">
+      <c r="A88" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" s="10" customFormat="1" spans="1:2">
+      <c r="A89" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1980,132 +2044,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>目录</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Q3：状态空间</t>
+  </si>
+  <si>
+    <t>Q3: 状态空间</t>
   </si>
   <si>
     <t>5.2.马尔可夫性质</t>
@@ -1147,10 +1150,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1473,9 +1476,9 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1696,332 +1699,338 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:2">
+    <row r="35" s="10" customFormat="1" spans="1:3">
       <c r="A35" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="21" t="s">
         <v>46</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:1">
       <c r="A36" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:2">
       <c r="A37" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" spans="1:1">
       <c r="A38" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" s="13" customFormat="1" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" s="13" customFormat="1" spans="1:3">
       <c r="A39" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:2">
       <c r="A40" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" spans="1:2">
       <c r="A41" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
       <c r="A42" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
       <c r="A43" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
       <c r="A44" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
       <c r="A45" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
       <c r="A46" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
       <c r="A47" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
       <c r="A48" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
       <c r="A49" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
       <c r="A50" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
       <c r="A51" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" s="13" customFormat="1" spans="1:1">
       <c r="A52" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
       <c r="A53" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" spans="1:1">
       <c r="A54" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:1">
       <c r="A55" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
       <c r="A56" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
       <c r="A57" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:2">
       <c r="A64" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:2">
       <c r="A65" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:2">
       <c r="A66" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:2">
       <c r="A67" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
       <c r="A68" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
       <c r="A69" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
       <c r="A70" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
       <c r="A71" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
       <c r="A72" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
       <c r="A73" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
       <c r="A74" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:1">
       <c r="A80" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:1">
       <c r="A81" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:1">
       <c r="A82" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:2">
       <c r="A86" s="23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:2">
       <c r="A87" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="25" t="s">
         <v>105</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:2">
       <c r="A89" s="23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2044,132 +2053,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>目录</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Q3：状态空间</t>
   </si>
   <si>
-    <t>Q3: 状态空间</t>
+    <t>Q3: 状态空间x2，无穷状空</t>
   </si>
   <si>
     <t>5.2.马尔可夫性质</t>
@@ -181,7 +181,10 @@
     <t>5.3.状态i的逗留时间Ti</t>
   </si>
   <si>
-    <t>Q3：平均停留时间</t>
+    <t>Q3：平均停留时间+评论</t>
+  </si>
+  <si>
+    <t>Q3: 平均停留时间+评论</t>
   </si>
   <si>
     <t>5.4.转移概率</t>
@@ -205,6 +208,9 @@
     <t>Q3：DTMC的稳态概率</t>
   </si>
   <si>
+    <t>Q3：DTMC+无穷状态空间</t>
+  </si>
+  <si>
     <t>5.8平均产量 R</t>
   </si>
   <si>
@@ -238,12 +244,18 @@
     <t>7.5.1 过渡率矩阵TRM</t>
   </si>
   <si>
+    <t>Q4：状态转换图</t>
+  </si>
+  <si>
     <t>7.6.状态概率</t>
   </si>
   <si>
     <t>7.7.稳态概率</t>
   </si>
   <si>
+    <t>Q4：带参数，法2，条件-增加/减少</t>
+  </si>
+  <si>
     <t>7.8平均产量 R</t>
   </si>
   <si>
@@ -277,12 +289,18 @@
     <t>3.M/M/1排队模型</t>
   </si>
   <si>
-    <t>Q4</t>
+    <t>Q4：求L W</t>
+  </si>
+  <si>
+    <t>Q4：优劣</t>
   </si>
   <si>
     <t>4.M/M/1/N 排队模型</t>
   </si>
   <si>
+    <t>Q4：判断N=3，优劣</t>
+  </si>
+  <si>
     <t>5.M/M/m 排队模型</t>
   </si>
   <si>
@@ -301,10 +319,16 @@
     <t>10.系统中的平均顾客数 L</t>
   </si>
   <si>
+    <t>Q4：求L</t>
+  </si>
+  <si>
     <t>11.排队的平均顾客数 Q</t>
   </si>
   <si>
     <t>12.顾客在系统的平均时间 W</t>
+  </si>
+  <si>
+    <t>Q4：求W</t>
   </si>
   <si>
     <t>13.排队的平均等待时间 D</t>
@@ -1059,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,6 +1175,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1476,16 +1506,16 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39:C39"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64:C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" style="15" customWidth="1"/>
-    <col min="2" max="2" width="35.0363636363636" style="15" customWidth="1"/>
-    <col min="3" max="3" width="22.4363636363636" style="15" customWidth="1"/>
+    <col min="2" max="2" width="26.2909090909091" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.3636363636364" style="15" customWidth="1"/>
     <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -1715,322 +1745,348 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" s="13" customFormat="1" spans="1:2">
-      <c r="A37" s="27" t="s">
+    <row r="37" s="13" customFormat="1" spans="1:3">
+      <c r="A37" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="21" t="s">
         <v>50</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" spans="1:1">
       <c r="A38" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" spans="1:3">
       <c r="A39" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>53</v>
+      <c r="B39" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:2">
       <c r="A40" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" s="13" customFormat="1" spans="1:2">
-      <c r="A41" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="24" t="s">
+    </row>
+    <row r="41" s="13" customFormat="1" spans="1:3">
+      <c r="A41" s="31" t="s">
         <v>57</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
       <c r="A42" s="26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
       <c r="A43" s="26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
       <c r="A44" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
       <c r="A45" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
       <c r="A46" s="29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
       <c r="A47" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
       <c r="A48" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
       <c r="A49" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
       <c r="A50" s="26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
       <c r="A51" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" s="13" customFormat="1" spans="1:1">
-      <c r="A52" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" s="13" customFormat="1" spans="1:3">
+      <c r="A52" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
       <c r="A53" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" s="13" customFormat="1" spans="1:1">
-      <c r="A54" s="26" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" s="13" customFormat="1" spans="1:3">
+      <c r="A54" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:1">
       <c r="A55" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
       <c r="A56" s="26" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
       <c r="A57" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" s="10" customFormat="1" spans="1:2">
-      <c r="A64" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" s="10" customFormat="1" spans="1:2">
-      <c r="A65" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" s="10" customFormat="1" spans="1:2">
-      <c r="A66" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" s="10" customFormat="1" spans="1:2">
-      <c r="A67" s="23" t="s">
+    </row>
+    <row r="64" s="10" customFormat="1" spans="1:3">
+      <c r="A64" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>82</v>
+      <c r="B64" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="1:3">
+      <c r="A65" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:3">
+      <c r="A66" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" s="10" customFormat="1" spans="1:3">
+      <c r="A67" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
-      <c r="A68" s="32" t="s">
-        <v>86</v>
+      <c r="A68" s="34" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
-      <c r="A69" s="33" t="s">
-        <v>87</v>
+      <c r="A69" s="35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
-      <c r="A70" s="33" t="s">
-        <v>88</v>
+      <c r="A70" s="35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
       <c r="A71" s="28" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
-      <c r="A72" s="33" t="s">
-        <v>90</v>
+      <c r="A72" s="35" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
       <c r="A73" s="28" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
-      <c r="A74" s="33" t="s">
-        <v>92</v>
+      <c r="A74" s="35" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:1">
       <c r="A80" s="19" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:1">
       <c r="A81" s="19" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:1">
       <c r="A82" s="19" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:2">
       <c r="A86" s="23" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:2">
       <c r="A87" s="23" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:2">
       <c r="A89" s="23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2053,132 +2109,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t>目录</t>
   </si>
@@ -352,10 +352,19 @@
     <t>2.2决策树分析</t>
   </si>
   <si>
+    <t>Q5：画决策树</t>
+  </si>
+  <si>
     <t>2.3效用理论</t>
   </si>
   <si>
+    <t>Q5：改变费用，改选择</t>
+  </si>
+  <si>
     <t>2.4冯·诺伊曼-摩根斯坦方法</t>
+  </si>
+  <si>
+    <t>Q5：决策树+效用</t>
   </si>
   <si>
     <t>2.5将风险纳入决策树分析</t>
@@ -1506,9 +1515,9 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64:C67"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="C80:C82 A80:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -2022,71 +2031,92 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="1" spans="1:1">
-      <c r="A80" s="19" t="s">
+    <row r="80" s="10" customFormat="1" spans="1:3">
+      <c r="A80" s="23" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="1:1">
-      <c r="A81" s="19" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" s="10" customFormat="1" spans="1:1">
-      <c r="A82" s="19" t="s">
+    <row r="81" s="10" customFormat="1" spans="1:3">
+      <c r="A81" s="23" t="s">
         <v>108</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" s="10" customFormat="1" spans="1:3">
+      <c r="A82" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="25" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" s="10" customFormat="1" spans="1:2">
-      <c r="A86" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" s="10" customFormat="1" spans="1:2">
-      <c r="A87" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="25" t="s">
-        <v>113</v>
+    </row>
+    <row r="86" s="10" customFormat="1" spans="1:3">
+      <c r="A86" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" s="10" customFormat="1" spans="1:3">
+      <c r="A87" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" s="10" customFormat="1" spans="1:2">
-      <c r="A89" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="25" t="s">
-        <v>113</v>
+    </row>
+    <row r="89" s="10" customFormat="1" spans="1:3">
+      <c r="A89" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2189,52 +2219,52 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>目录</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Q1：LP等式</t>
   </si>
   <si>
+    <t>Q1：LP等式x2</t>
+  </si>
+  <si>
     <t>2.线性规划 : 单纯形法</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
     <t>3.2.任务分配问题</t>
   </si>
   <si>
+    <t>Q2：匈牙利方法</t>
+  </si>
+  <si>
     <t>4.最优技巧</t>
   </si>
   <si>
@@ -133,12 +139,18 @@
     <t>4.3.5.不等式约束下的优化</t>
   </si>
   <si>
+    <t>Q2：L</t>
+  </si>
+  <si>
     <t>4.3.5.1 拉格朗日乘数法</t>
   </si>
   <si>
     <t>4.3.5.2 Convex 函数</t>
   </si>
   <si>
+    <t>Q2：μ=0</t>
+  </si>
+  <si>
     <t>4.3.5.3 K-T充分定理</t>
   </si>
   <si>
@@ -163,6 +175,9 @@
     <t>4.泊松过程</t>
   </si>
   <si>
+    <t>Q3：范围概率和</t>
+  </si>
+  <si>
     <t>5.离散时间马尔可夫链</t>
   </si>
   <si>
@@ -188,6 +203,9 @@
   </si>
   <si>
     <t>5.4.转移概率</t>
+  </si>
+  <si>
+    <t>Q3：转移概率pij</t>
   </si>
   <si>
     <t>5.5.转移概率矩阵 TPM</t>
@@ -585,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,7 +992,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,16 +1016,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1010,89 +1034,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,6 +1204,9 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1192,7 +1219,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,9 +1551,9 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A80" sqref="C80:C82 A80:A82"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="A38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1525,7 +1561,8 @@
     <col min="1" max="1" width="32.1818181818182" style="15" customWidth="1"/>
     <col min="2" max="2" width="26.2909090909091" style="15" customWidth="1"/>
     <col min="3" max="3" width="26.3636363636364" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="15"/>
+    <col min="4" max="4" width="18.6727272727273" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:4">
@@ -1557,7 +1594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" spans="1:3">
+    <row r="5" s="10" customFormat="1" spans="1:4">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -1567,556 +1604,607 @@
       <c r="C5" s="22" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
       <c r="A6" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:4">
       <c r="A7" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
       <c r="A8" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
       <c r="A9" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
       <c r="A10" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
       <c r="A11" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:3">
       <c r="A12" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:1">
-      <c r="A13" s="19" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:4">
+      <c r="A13" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
       <c r="A22" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:1">
       <c r="A23" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:1">
-      <c r="A24" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" s="11" customFormat="1" spans="1:1">
-      <c r="A25" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="1" spans="1:1">
-      <c r="A26" s="26" t="s">
+    <row r="24" s="11" customFormat="1" spans="1:4">
+      <c r="A24" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" s="11" customFormat="1" spans="1:1">
-      <c r="A27" s="26" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="28" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="25" s="11" customFormat="1" spans="1:4">
+      <c r="A25" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" s="11" customFormat="1" spans="1:4">
+      <c r="A26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" s="11" customFormat="1" spans="1:4">
+      <c r="A27" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:2">
       <c r="A28" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" s="10" customFormat="1" spans="1:1">
-      <c r="A33" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" s="10" customFormat="1" spans="1:4">
+      <c r="A33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" s="12" customFormat="1" spans="1:1">
-      <c r="A34" s="29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:3">
-      <c r="A35" s="30" t="s">
-        <v>45</v>
+      <c r="A34" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:4">
+      <c r="A35" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:1">
       <c r="A36" s="26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:3">
-      <c r="A37" s="31" t="s">
-        <v>49</v>
+      <c r="A37" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" s="13" customFormat="1" spans="1:1">
-      <c r="A38" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" s="13" customFormat="1" spans="1:3">
-      <c r="A39" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" s="13" customFormat="1" spans="1:4">
+      <c r="A38" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" s="13" customFormat="1" spans="1:4">
+      <c r="A39" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:2">
       <c r="A40" s="27" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" spans="1:3">
-      <c r="A41" s="31" t="s">
-        <v>57</v>
+      <c r="A41" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
       <c r="A42" s="26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
       <c r="A43" s="26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
       <c r="A44" s="26" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
       <c r="A45" s="26" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
-      <c r="A46" s="29" t="s">
-        <v>64</v>
+      <c r="A46" s="30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
       <c r="A47" s="26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
       <c r="A48" s="26" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
       <c r="A49" s="26" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
       <c r="A50" s="26" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
       <c r="A51" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" s="13" customFormat="1" spans="1:3">
       <c r="A52" s="27" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="25" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
       <c r="A53" s="26" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" spans="1:3">
       <c r="A54" s="27" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="25" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:1">
       <c r="A55" s="26" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
       <c r="A56" s="26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
       <c r="A57" s="26" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="23" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:3">
       <c r="A64" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:3">
       <c r="A65" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:3">
       <c r="A66" s="20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
-      <c r="A68" s="34" t="s">
-        <v>92</v>
+      <c r="A68" s="38" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
-      <c r="A69" s="35" t="s">
-        <v>93</v>
+      <c r="A69" s="39" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
-      <c r="A70" s="35" t="s">
-        <v>94</v>
+      <c r="A70" s="39" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
-      <c r="A71" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>96</v>
+      <c r="A71" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
-      <c r="A72" s="35" t="s">
-        <v>97</v>
+      <c r="A72" s="39" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
-      <c r="A73" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>99</v>
+      <c r="A73" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
-      <c r="A74" s="35" t="s">
-        <v>100</v>
+      <c r="A74" s="39" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:3">
       <c r="A80" s="23" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="25" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="23" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="25" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="23" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="25" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="32" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="32" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="32" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>122</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2139,132 +2227,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="132">
   <si>
     <t>目录</t>
   </si>
@@ -220,6 +220,9 @@
     <t>Q3：四周后概率</t>
   </si>
   <si>
+    <t>Q3：3月后概率</t>
+  </si>
+  <si>
     <t>5.7.稳态概率</t>
   </si>
   <si>
@@ -265,6 +268,9 @@
     <t>Q4：状态转换图</t>
   </si>
   <si>
+    <t>Q4：状态转移图x2</t>
+  </si>
+  <si>
     <t>7.6.状态概率</t>
   </si>
   <si>
@@ -274,9 +280,15 @@
     <t>Q4：带参数，法2，条件-增加/减少</t>
   </si>
   <si>
+    <t>Q4：稳态概率x2</t>
+  </si>
+  <si>
     <t>7.8平均产量 R</t>
   </si>
   <si>
+    <t>Q4：平均产量x4</t>
+  </si>
+  <si>
     <t>7.9稳态可用性</t>
   </si>
   <si>
@@ -371,6 +383,9 @@
   </si>
   <si>
     <t>Q5：画决策树</t>
+  </si>
+  <si>
+    <t>Q5：画决策树，推荐</t>
   </si>
   <si>
     <t>2.3效用理论</t>
@@ -603,7 +618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +670,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1019,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1016,16 +1043,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1034,89 +1061,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1210,7 +1237,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1225,10 +1258,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,9 +1584,9 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="A38:D39"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1815,13 +1848,13 @@
       <c r="A35" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="33" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1831,380 +1864,398 @@
       </c>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" spans="1:4">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="37" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" spans="1:4">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="14" customFormat="1" spans="1:2">
-      <c r="A40" s="27" t="s">
+    <row r="40" s="14" customFormat="1" spans="1:4">
+      <c r="A40" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="21" t="s">
         <v>62</v>
       </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="41" s="13" customFormat="1" spans="1:3">
-      <c r="A41" s="32" t="s">
-        <v>63</v>
+      <c r="A41" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="33" t="s">
         <v>65</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
       <c r="A42" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
       <c r="A43" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
       <c r="A44" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
       <c r="A45" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
       <c r="A46" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
       <c r="A47" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
       <c r="A48" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
       <c r="A49" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
       <c r="A50" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
       <c r="A51" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" s="13" customFormat="1" spans="1:3">
-      <c r="A52" s="27" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="52" s="13" customFormat="1" spans="1:4">
+      <c r="A52" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="B52" s="13"/>
-      <c r="C52" s="25" t="s">
-        <v>77</v>
+      <c r="C52" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
       <c r="A53" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" s="13" customFormat="1" spans="1:3">
-      <c r="A54" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" s="13" customFormat="1" spans="1:4">
+      <c r="A54" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="B54" s="13"/>
-      <c r="C54" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" s="13" customFormat="1" spans="1:1">
-      <c r="A55" s="26" t="s">
-        <v>81</v>
+      <c r="C54" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" s="13" customFormat="1" spans="1:4">
+      <c r="A55" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
       <c r="A56" s="26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
       <c r="A57" s="26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:3">
       <c r="A64" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:3">
       <c r="A65" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:3">
       <c r="A66" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>92</v>
-      </c>
       <c r="C66" s="22" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
-      <c r="A68" s="38" t="s">
-        <v>98</v>
+      <c r="A68" s="40" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
-      <c r="A69" s="39" t="s">
-        <v>99</v>
+      <c r="A69" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
-      <c r="A70" s="39" t="s">
-        <v>100</v>
+      <c r="A70" s="41" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
-      <c r="A72" s="39" t="s">
-        <v>103</v>
+      <c r="A72" s="41" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
-      <c r="A74" s="39" t="s">
-        <v>106</v>
+      <c r="A74" s="41" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:1">
       <c r="A79" s="19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" s="10" customFormat="1" spans="1:3">
-      <c r="A80" s="23" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" s="10" customFormat="1" spans="1:4">
+      <c r="A80" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="25" t="s">
-        <v>113</v>
+      <c r="C80" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="33" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="B87" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>127</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2227,132 +2278,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
   <si>
     <t>目录</t>
   </si>
@@ -286,7 +286,7 @@
     <t>7.8平均产量 R</t>
   </si>
   <si>
-    <t>Q4：平均产量x4</t>
+    <t>Q4：平均产量x4+分析</t>
   </si>
   <si>
     <t>7.9稳态可用性</t>
@@ -379,6 +379,9 @@
     <t>2.1期望收益</t>
   </si>
   <si>
+    <t>Q5：改变费用，改选择</t>
+  </si>
+  <si>
     <t>2.2决策树分析</t>
   </si>
   <si>
@@ -389,9 +392,6 @@
   </si>
   <si>
     <t>2.3效用理论</t>
-  </si>
-  <si>
-    <t>Q5：改变费用，改选择</t>
   </si>
   <si>
     <t>2.4冯·诺伊曼-摩根斯坦方法</t>
@@ -1584,9 +1584,9 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="D79 A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -2162,30 +2162,35 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" s="10" customFormat="1" spans="1:1">
-      <c r="A79" s="19" t="s">
+    <row r="79" s="10" customFormat="1" spans="1:4">
+      <c r="A79" s="23" t="s">
         <v>115</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="25" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:4">
       <c r="A80" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
@@ -2353,12 +2358,12 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -1584,9 +1584,9 @@
   <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="D79 A79"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
   <si>
     <t>目录</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>21-S1</t>
+  </si>
+  <si>
+    <t>18-S1</t>
   </si>
   <si>
     <t>线性规划 非线性规划</t>
@@ -1581,24 +1584,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" style="15" customWidth="1"/>
     <col min="2" max="2" width="26.2909090909091" style="15" customWidth="1"/>
     <col min="3" max="3" width="26.3636363636364" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.6727272727273" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="15"/>
+    <col min="5" max="5" width="16.0727272727273" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:4">
+    <row r="1" s="7" customFormat="1" spans="1:5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1611,656 +1615,659 @@
       <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:1">
       <c r="A2" s="17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:1">
       <c r="A3" s="18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:1">
       <c r="A4" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:4">
       <c r="A5" s="20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
       <c r="A6" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:4">
       <c r="A7" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
       <c r="A8" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
       <c r="A9" s="23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
       <c r="A10" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:3">
       <c r="A12" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
       <c r="A22" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:1">
       <c r="A23" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="1:4">
       <c r="A24" s="27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:4">
       <c r="A25" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" s="11" customFormat="1" spans="1:4">
       <c r="A26" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="1:4">
       <c r="A27" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:2">
       <c r="A28" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
       <c r="A33" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" s="12" customFormat="1" spans="1:1">
       <c r="A34" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:4">
       <c r="A35" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>52</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:1">
       <c r="A36" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:3">
       <c r="A37" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" spans="1:4">
       <c r="A38" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" spans="1:4">
       <c r="A39" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:4">
       <c r="A40" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" spans="1:3">
       <c r="A41" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
       <c r="A42" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
       <c r="A43" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
       <c r="A44" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
       <c r="A45" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
       <c r="A46" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
       <c r="A47" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
       <c r="A48" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
       <c r="A49" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
       <c r="A50" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
       <c r="A51" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" s="13" customFormat="1" spans="1:4">
       <c r="A52" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
       <c r="A53" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" spans="1:4">
       <c r="A54" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:4">
       <c r="A55" s="39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
       <c r="A56" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
       <c r="A57" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:3">
       <c r="A64" s="20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:3">
       <c r="A65" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:3">
       <c r="A66" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
       <c r="A68" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
       <c r="A69" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
       <c r="A70" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
       <c r="A72" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
       <c r="A74" s="41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:4">
       <c r="A80" s="20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="C87" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2283,132 +2290,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>目录</t>
   </si>
@@ -43,7 +43,7 @@
     <t>21-S1</t>
   </si>
   <si>
-    <t>18-S1</t>
+    <t>18-S2</t>
   </si>
   <si>
     <t>线性规划 非线性规划</t>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Q2:运输模型</t>
+  </si>
+  <si>
+    <t>Q1:运输模型+灵敏度？</t>
   </si>
   <si>
     <t>3.2.任务分配问题</t>
@@ -1587,7 +1590,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
@@ -1598,7 +1601,7 @@
     <col min="2" max="2" width="26.2909090909091" style="15" customWidth="1"/>
     <col min="3" max="3" width="26.3636363636364" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.6727272727273" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.0727272727273" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.1909090909091" style="15" customWidth="1"/>
     <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -1690,7 +1693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="10" customFormat="1" spans="1:3">
+    <row r="12" s="10" customFormat="1" spans="1:5">
       <c r="A12" s="23" t="s">
         <v>20</v>
       </c>
@@ -1698,576 +1701,580 @@
       <c r="C12" s="25" t="s">
         <v>21</v>
       </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="25" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:1">
       <c r="A15" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
       <c r="A18" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:3">
       <c r="A21" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
       <c r="A22" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:1">
       <c r="A23" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="1:4">
       <c r="A24" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" s="11" customFormat="1" spans="1:4">
       <c r="A25" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" s="11" customFormat="1" spans="1:4">
       <c r="A26" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="1:4">
       <c r="A27" s="27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:2">
       <c r="A28" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
       <c r="A33" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" s="12" customFormat="1" spans="1:1">
       <c r="A34" s="30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:4">
       <c r="A35" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>53</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:1">
       <c r="A36" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" spans="1:3">
       <c r="A37" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" spans="1:4">
       <c r="A38" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" spans="1:4">
       <c r="A39" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" s="14" customFormat="1" spans="1:4">
       <c r="A40" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" spans="1:3">
       <c r="A41" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" spans="1:1">
       <c r="A42" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" spans="1:1">
       <c r="A43" s="26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" s="13" customFormat="1" spans="1:1">
       <c r="A44" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" s="13" customFormat="1" spans="1:1">
       <c r="A45" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="12" customFormat="1" spans="1:1">
       <c r="A46" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" s="14" customFormat="1" spans="1:1">
       <c r="A47" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" s="14" customFormat="1" spans="1:1">
       <c r="A48" s="26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" s="13" customFormat="1" spans="1:1">
       <c r="A49" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" s="14" customFormat="1" spans="1:1">
       <c r="A50" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" s="13" customFormat="1" spans="1:1">
       <c r="A51" s="26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" s="13" customFormat="1" spans="1:4">
       <c r="A52" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" s="13" customFormat="1" spans="1:1">
       <c r="A53" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" spans="1:4">
       <c r="A54" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" spans="1:4">
       <c r="A55" s="39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" spans="1:1">
       <c r="A56" s="26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" s="14" customFormat="1" spans="1:1">
       <c r="A57" s="26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:3">
       <c r="A64" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:3">
       <c r="A65" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:3">
       <c r="A66" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" s="11" customFormat="1" spans="1:1">
       <c r="A68" s="40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" s="11" customFormat="1" spans="1:1">
       <c r="A69" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" s="11" customFormat="1" spans="1:1">
       <c r="A70" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" s="11" customFormat="1" spans="1:2">
       <c r="A71" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" s="11" customFormat="1" spans="1:1">
       <c r="A72" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" s="11" customFormat="1" spans="1:2">
       <c r="A73" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" s="11" customFormat="1" spans="1:1">
       <c r="A74" s="41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
       <c r="A77" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:4">
       <c r="A80" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D80" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B87" s="35" t="s">
-        <v>128</v>
-      </c>
       <c r="C87" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2290,132 +2297,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -1590,9 +1590,9 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
   <si>
     <t>目录</t>
   </si>
@@ -112,6 +112,9 @@
     <t>4.1.非线性规划</t>
   </si>
   <si>
+    <t>Q2：NLP等式</t>
+  </si>
+  <si>
     <t>4.2.单变量优化</t>
   </si>
   <si>
@@ -133,7 +136,13 @@
     <t>4.3.4.具有等约束的多变量优化</t>
   </si>
   <si>
-    <t>Q2：L+Test optimal</t>
+    <t>Q2：L+不定</t>
+  </si>
+  <si>
+    <t>Q2：L+正定</t>
+  </si>
+  <si>
+    <t>Q2：L+负定</t>
   </si>
   <si>
     <t>4.3.4.1 拉格朗日乘数法</t>
@@ -145,7 +154,7 @@
     <t>4.3.5.不等式约束下的优化</t>
   </si>
   <si>
-    <t>Q2：L</t>
+    <t>Q2：L，正定</t>
   </si>
   <si>
     <t>4.3.5.1 拉格朗日乘数法</t>
@@ -199,6 +208,9 @@
     <t>5.2.马尔可夫性质</t>
   </si>
   <si>
+    <t>Q3：马尔可夫定义</t>
+  </si>
+  <si>
     <t>5.3.状态i的逗留时间Ti</t>
   </si>
   <si>
@@ -238,6 +250,9 @@
     <t>Q3：DTMC+无穷状态空间</t>
   </si>
   <si>
+    <t>Q3：稳概+评价并建议</t>
+  </si>
+  <si>
     <t>5.8平均产量 R</t>
   </si>
   <si>
@@ -256,6 +271,9 @@
     <t>7.1定义</t>
   </si>
   <si>
+    <t>Q4：状态空间</t>
+  </si>
+  <si>
     <t>7.2.马尔可夫性质</t>
   </si>
   <si>
@@ -277,6 +295,9 @@
     <t>Q4：状态转移图x2</t>
   </si>
   <si>
+    <t>Q4：状态转移图x2+改</t>
+  </si>
+  <si>
     <t>7.6.状态概率</t>
   </si>
   <si>
@@ -289,10 +310,16 @@
     <t>Q4：稳态概率x2</t>
   </si>
   <si>
-    <t>7.8平均产量 R</t>
-  </si>
-  <si>
-    <t>Q4：平均产量x4+分析</t>
+    <t>Q4：稳态概率</t>
+  </si>
+  <si>
+    <t>7.8平均生产效率 R</t>
+  </si>
+  <si>
+    <t>Q4：平均生产效率Rx4+分析</t>
+  </si>
+  <si>
+    <t>Q4：平均生产效率 R+改</t>
   </si>
   <si>
     <t>7.9稳态可用性</t>
@@ -624,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,43 +678,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1046,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,16 +1070,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1067,89 +1088,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1183,98 +1204,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1590,32 +1569,32 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.1818181818182" style="15" customWidth="1"/>
-    <col min="2" max="2" width="26.2909090909091" style="15" customWidth="1"/>
-    <col min="3" max="3" width="26.3636363636364" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.6727272727273" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.1909090909091" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="32.1818181818182" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.2909090909091" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.3636363636364" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18.6727272727273" style="12" customWidth="1"/>
+    <col min="5" max="5" width="21.1909090909091" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1623,658 +1602,694 @@
       </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="1" spans="1:1">
-      <c r="A15" s="19" t="s">
+    <row r="15" s="10" customFormat="1" spans="1:5">
+      <c r="A15" s="20" t="s">
         <v>26</v>
       </c>
+      <c r="B15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
-      <c r="A16" s="19" t="s">
-        <v>27</v>
+      <c r="A16" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
-      <c r="A17" s="19" t="s">
-        <v>28</v>
+      <c r="A17" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
-      <c r="A18" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="B18" s="19" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
-      <c r="A19" s="19" t="s">
-        <v>31</v>
+      <c r="A19" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
-      <c r="A20" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:5">
       <c r="A21" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
-      <c r="A22" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" s="11" customFormat="1" spans="1:1">
-      <c r="A23" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:4">
-      <c r="A24" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="28" t="s">
+      <c r="A22" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" s="11" customFormat="1" spans="1:4">
-      <c r="A25" s="27" t="s">
+    <row r="23" s="10" customFormat="1" spans="1:1">
+      <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:4">
-      <c r="A26" s="27" t="s">
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:4">
+      <c r="A24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="28" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" s="11" customFormat="1" spans="1:4">
-      <c r="A27" s="27" t="s">
+    <row r="25" s="10" customFormat="1" spans="1:4">
+      <c r="A25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="28" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" s="11" customFormat="1" spans="1:2">
-      <c r="A28" s="27" t="s">
+    <row r="26" s="10" customFormat="1" spans="1:4">
+      <c r="A26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="19" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="27" s="10" customFormat="1" spans="1:4">
+      <c r="A27" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" s="10" customFormat="1" spans="1:2">
+      <c r="A28" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
-      <c r="A29" s="17" t="s">
-        <v>45</v>
+      <c r="A29" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
-      <c r="A30" s="19" t="s">
-        <v>46</v>
+      <c r="A30" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
-      <c r="A31" s="19" t="s">
-        <v>47</v>
+      <c r="A31" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
-      <c r="A32" s="19" t="s">
-        <v>48</v>
+      <c r="A32" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
-      <c r="A33" s="23" t="s">
-        <v>49</v>
+      <c r="A33" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" s="12" customFormat="1" spans="1:1">
-      <c r="A34" s="30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:4">
-      <c r="A35" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="32" t="s">
+      <c r="D33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="33" t="s">
+    </row>
+    <row r="34" s="9" customFormat="1" spans="1:1">
+      <c r="A34" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:1">
-      <c r="A36" s="26" t="s">
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:5">
+      <c r="A35" s="22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" s="13" customFormat="1" spans="1:3">
-      <c r="A37" s="34" t="s">
+      <c r="B35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C35" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="D35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:5">
+      <c r="A36" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" s="13" customFormat="1" spans="1:4">
-      <c r="A38" s="36" t="s">
+      <c r="E36" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="37" t="s">
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:3">
+      <c r="A37" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" s="13" customFormat="1" spans="1:4">
-      <c r="A39" s="31" t="s">
+      <c r="B37" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="C37" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" s="14" customFormat="1" spans="1:4">
-      <c r="A40" s="34" t="s">
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:4">
+      <c r="A38" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B38" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="21" t="s">
+      <c r="C38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:5">
+      <c r="A39" s="22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="41" s="13" customFormat="1" spans="1:3">
-      <c r="A41" s="34" t="s">
+      <c r="B39" s="24" t="s">
         <v>66</v>
       </c>
+      <c r="C39" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" spans="1:4">
+      <c r="A40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:5">
+      <c r="A41" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="B41" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" s="13" customFormat="1" spans="1:1">
-      <c r="A42" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" s="13" customFormat="1" spans="1:1">
-      <c r="A43" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" s="13" customFormat="1" spans="1:1">
-      <c r="A44" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" s="13" customFormat="1" spans="1:1">
-      <c r="A45" s="26" t="s">
+      <c r="C41" s="21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" s="12" customFormat="1" spans="1:1">
-      <c r="A46" s="30" t="s">
+      <c r="E41" s="21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" s="14" customFormat="1" spans="1:1">
-      <c r="A47" s="26" t="s">
+    <row r="42" s="11" customFormat="1" spans="1:1">
+      <c r="A42" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" s="14" customFormat="1" spans="1:1">
-      <c r="A48" s="26" t="s">
+    <row r="43" s="11" customFormat="1" spans="1:1">
+      <c r="A43" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" s="13" customFormat="1" spans="1:1">
-      <c r="A49" s="26" t="s">
+    <row r="44" s="11" customFormat="1" spans="1:1">
+      <c r="A44" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" s="14" customFormat="1" spans="1:1">
-      <c r="A50" s="26" t="s">
+    <row r="45" s="11" customFormat="1" spans="1:1">
+      <c r="A45" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="1" spans="1:1">
-      <c r="A51" s="26" t="s">
+    <row r="46" s="9" customFormat="1" spans="1:1">
+      <c r="A46" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" s="13" customFormat="1" spans="1:4">
-      <c r="A52" s="34" t="s">
+    <row r="47" s="11" customFormat="1" spans="1:5">
+      <c r="A47" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="35" t="s">
+      <c r="E47" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="35" t="s">
+    </row>
+    <row r="48" s="11" customFormat="1" spans="1:1">
+      <c r="A48" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="1" spans="1:1">
-      <c r="A53" s="26" t="s">
+    <row r="49" s="11" customFormat="1" spans="1:1">
+      <c r="A49" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" s="13" customFormat="1" spans="1:4">
-      <c r="A54" s="34" t="s">
+    <row r="50" s="11" customFormat="1" spans="1:1">
+      <c r="A50" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="35" t="s">
+    </row>
+    <row r="51" s="11" customFormat="1" spans="1:1">
+      <c r="A51" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="35" t="s">
+    </row>
+    <row r="52" s="11" customFormat="1" spans="1:5">
+      <c r="A52" s="20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="55" s="13" customFormat="1" spans="1:4">
-      <c r="A55" s="39" t="s">
+      <c r="B52" s="11"/>
+      <c r="C52" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="25" t="s">
+      <c r="D52" s="21" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" s="13" customFormat="1" spans="1:1">
-      <c r="A56" s="26" t="s">
+      <c r="E52" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" s="14" customFormat="1" spans="1:1">
-      <c r="A57" s="26" t="s">
+    <row r="53" s="11" customFormat="1" spans="1:1">
+      <c r="A53" s="15" t="s">
         <v>89</v>
       </c>
     </row>
+    <row r="54" s="11" customFormat="1" spans="1:5">
+      <c r="A54" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" s="11" customFormat="1" spans="1:5">
+      <c r="A55" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" s="11" customFormat="1" spans="1:1">
+      <c r="A56" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" s="11" customFormat="1" spans="1:1">
+      <c r="A57" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
-      <c r="A58" s="19" t="s">
-        <v>90</v>
+      <c r="A58" s="15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
-      <c r="A59" s="19" t="s">
-        <v>91</v>
+      <c r="A59" s="15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
-      <c r="A60" s="19" t="s">
-        <v>92</v>
+      <c r="A60" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
-      <c r="A61" s="17" t="s">
-        <v>93</v>
+      <c r="A61" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
-      <c r="A62" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>95</v>
+      <c r="A62" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
-      <c r="A63" s="19" t="s">
-        <v>96</v>
+      <c r="A63" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:3">
-      <c r="A64" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>99</v>
+      <c r="A64" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:3">
-      <c r="A65" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>101</v>
+      <c r="A65" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:3">
-      <c r="A66" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>99</v>
+      <c r="A66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
-      <c r="A67" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" s="11" customFormat="1" spans="1:1">
-      <c r="A68" s="40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" s="11" customFormat="1" spans="1:1">
-      <c r="A69" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" s="11" customFormat="1" spans="1:1">
-      <c r="A70" s="41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" s="11" customFormat="1" spans="1:2">
-      <c r="A71" s="29" t="s">
+      <c r="A67" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="C67" s="17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" s="11" customFormat="1" spans="1:1">
-      <c r="A72" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" s="11" customFormat="1" spans="1:2">
-      <c r="A73" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" s="11" customFormat="1" spans="1:1">
-      <c r="A74" s="41" t="s">
-        <v>112</v>
+    <row r="68" s="10" customFormat="1" spans="1:1">
+      <c r="A68" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" s="10" customFormat="1" spans="1:1">
+      <c r="A69" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" s="10" customFormat="1" spans="1:1">
+      <c r="A70" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" s="10" customFormat="1" spans="1:2">
+      <c r="A71" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" s="10" customFormat="1" spans="1:1">
+      <c r="A72" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" s="10" customFormat="1" spans="1:2">
+      <c r="A73" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="1:1">
+      <c r="A74" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
-      <c r="A75" s="17" t="s">
-        <v>113</v>
+      <c r="A75" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
-      <c r="A76" s="18" t="s">
-        <v>114</v>
+      <c r="A76" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:1">
-      <c r="A77" s="19" t="s">
-        <v>115</v>
+      <c r="A77" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
-      <c r="A78" s="18" t="s">
-        <v>116</v>
+      <c r="A78" s="14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
-      <c r="A79" s="23" t="s">
-        <v>117</v>
+      <c r="A79" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="25" t="s">
-        <v>118</v>
+      <c r="D79" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:4">
-      <c r="A80" s="20" t="s">
-        <v>119</v>
+      <c r="A80" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>121</v>
+      <c r="C80" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
-      <c r="A81" s="23" t="s">
-        <v>122</v>
+      <c r="A81" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="25" t="s">
-        <v>118</v>
+      <c r="C81" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
-      <c r="A82" s="23" t="s">
-        <v>123</v>
+      <c r="A82" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="25" t="s">
-        <v>124</v>
+      <c r="C82" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
-      <c r="A83" s="19" t="s">
-        <v>125</v>
+      <c r="A83" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
-      <c r="A84" s="19" t="s">
-        <v>126</v>
+      <c r="A84" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
-      <c r="A85" s="18" t="s">
-        <v>127</v>
+      <c r="A85" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
-      <c r="A86" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>129</v>
+      <c r="A86" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
-      <c r="A87" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>129</v>
+      <c r="A87" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
-      <c r="A88" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>129</v>
+      <c r="A88" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
-      <c r="A89" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>129</v>
+      <c r="A89" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
-      <c r="A90" s="19" t="s">
-        <v>133</v>
+      <c r="A90" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2297,132 +2312,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>目录</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>1.1层次分析法</t>
+  </si>
+  <si>
+    <t>Q5：</t>
   </si>
   <si>
     <t>2.风险下的决策</t>
@@ -1569,9 +1572,9 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2181,115 +2184,118 @@
         <v>123</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:1">
+    <row r="77" s="10" customFormat="1" spans="1:5">
       <c r="A77" s="15" t="s">
         <v>124</v>
       </c>
+      <c r="E77" s="10" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:4">
       <c r="A80" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>138</v>
-      </c>
       <c r="C87" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2377,67 +2383,67 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -406,7 +406,7 @@
     <t>1.1层次分析法</t>
   </si>
   <si>
-    <t>Q5：</t>
+    <t>Q5：标准，一致性，最终结果</t>
   </si>
   <si>
     <t>2.风险下的决策</t>
@@ -1572,9 +1572,9 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="E77 A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2185,10 +2185,10 @@
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:5">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E77" s="10" t="s">
+      <c r="E77" s="19" t="s">
         <v>125</v>
       </c>
     </row>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
   <si>
     <t>目录</t>
   </si>
@@ -46,6 +46,9 @@
     <t>18-S2</t>
   </si>
   <si>
+    <t>17-S2</t>
+  </si>
+  <si>
     <t>线性规划 非线性规划</t>
   </si>
   <si>
@@ -97,7 +100,7 @@
     <t>Q2:运输模型</t>
   </si>
   <si>
-    <t>Q1:运输模型+灵敏度？</t>
+    <t>Q1:运输模型+灵敏度</t>
   </si>
   <si>
     <t>3.2.任务分配问题</t>
@@ -106,6 +109,9 @@
     <t>Q2：匈牙利方法</t>
   </si>
   <si>
+    <t>Q1：匈牙利方法</t>
+  </si>
+  <si>
     <t>4.最优技巧</t>
   </si>
   <si>
@@ -145,6 +151,9 @@
     <t>Q2：L+负定</t>
   </si>
   <si>
+    <t>Q2：L</t>
+  </si>
+  <si>
     <t>4.3.4.1 拉格朗日乘数法</t>
   </si>
   <si>
@@ -220,12 +229,18 @@
     <t>Q3: 平均停留时间+评论</t>
   </si>
   <si>
+    <t>Q3：平均逗留时间</t>
+  </si>
+  <si>
     <t>5.4.转移概率</t>
   </si>
   <si>
     <t>Q3：转移概率pij</t>
   </si>
   <si>
+    <t>Q3：转移图</t>
+  </si>
+  <si>
     <t>5.5.转移概率矩阵 TPM</t>
   </si>
   <si>
@@ -244,10 +259,10 @@
     <t>5.7.稳态概率</t>
   </si>
   <si>
-    <t>Q3：DTMC的稳态概率</t>
-  </si>
-  <si>
-    <t>Q3：DTMC+无穷状态空间</t>
+    <t>Q3：稳态概率</t>
+  </si>
+  <si>
+    <t>Q3：稳态概率+无穷状态空间</t>
   </si>
   <si>
     <t>Q3：稳概+评价并建议</t>
@@ -313,6 +328,9 @@
     <t>Q4：稳态概率</t>
   </si>
   <si>
+    <t>Q4：速率平衡方程+稳态概率</t>
+  </si>
+  <si>
     <t>7.8平均生产效率 R</t>
   </si>
   <si>
@@ -358,10 +376,19 @@
     <t>Q4：优劣</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Q4: Π0 Q D</t>
+  </si>
+  <si>
     <t>4.M/M/1/N 排队模型</t>
   </si>
   <si>
     <t>Q4：判断N=3，优劣</t>
+  </si>
+  <si>
+    <t>Q4：调整</t>
   </si>
   <si>
     <t>5.M/M/m 排队模型</t>
@@ -501,11 +528,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -654,7 +683,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,7 +734,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1090,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,16 +1114,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1091,89 +1132,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,19 +1281,25 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1569,25 +1616,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="E77 A77"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" style="12" customWidth="1"/>
     <col min="2" max="2" width="26.2909090909091" style="12" customWidth="1"/>
     <col min="3" max="3" width="26.3636363636364" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.6727272727273" style="12" customWidth="1"/>
     <col min="5" max="5" width="21.1909090909091" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="12"/>
+    <col min="6" max="6" width="17.5454545454545" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:5">
+    <row r="1" s="7" customFormat="1" spans="1:6">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1603,699 +1651,747 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" spans="1:4">
       <c r="A5" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" s="10" customFormat="1" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
       <c r="A8" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
       <c r="A10" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
       <c r="A11" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:5">
-      <c r="A12" s="18" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:6">
+      <c r="A12" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
+      <c r="C12" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:4">
-      <c r="A13" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>23</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:6">
+      <c r="A13" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="19" t="s">
-        <v>24</v>
+      <c r="D13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:5">
-      <c r="A15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>27</v>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:6">
+      <c r="A15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
       <c r="A18" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:5">
-      <c r="A21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="21" t="s">
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:6">
+      <c r="A21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>37</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
       <c r="A22" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" s="10" customFormat="1" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:4">
       <c r="A24" s="18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" s="10" customFormat="1" spans="1:4">
       <c r="A25" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" s="10" customFormat="1" spans="1:4">
       <c r="A26" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" s="10" customFormat="1" spans="1:4">
       <c r="A27" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" s="10" customFormat="1" spans="1:2">
       <c r="A28" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
       <c r="A33" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:1">
       <c r="A34" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:5">
-      <c r="A35" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>56</v>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:6">
+      <c r="A35" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" s="11" customFormat="1" spans="1:3">
-      <c r="A37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" s="11" customFormat="1" spans="1:4">
-      <c r="A38" s="20" t="s">
+    <row r="37" s="11" customFormat="1" spans="1:6">
+      <c r="A37" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B37" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" s="11" customFormat="1" spans="1:5">
-      <c r="A39" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="F37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>66</v>
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:6">
+      <c r="A38" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:6">
+      <c r="A39" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:4">
       <c r="A40" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" s="11" customFormat="1" spans="1:5">
-      <c r="A41" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:6">
+      <c r="A41" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:5">
       <c r="A47" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:1">
       <c r="A50" s="15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" s="11" customFormat="1" spans="1:5">
-      <c r="A52" s="20" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" s="11" customFormat="1" spans="1:6">
+      <c r="A52" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>88</v>
+      <c r="C52" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:5">
-      <c r="A54" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:6">
+      <c r="A54" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>93</v>
+      <c r="C54" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:5">
       <c r="A55" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" s="10" customFormat="1" spans="1:3">
-      <c r="A64" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" s="10" customFormat="1" spans="1:3">
-      <c r="A65" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" s="10" customFormat="1" spans="1:3">
-      <c r="A66" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>108</v>
+    </row>
+    <row r="64" s="10" customFormat="1" spans="1:6">
+      <c r="A64" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="1:6">
+      <c r="A65" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:6">
+      <c r="A66" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="16" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
-      <c r="A68" s="27" t="s">
-        <v>113</v>
+      <c r="A68" s="29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="19" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:5">
       <c r="A77" s="18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:4">
       <c r="A80" s="16" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="17" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2318,132 +2414,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
   <si>
     <t>目录</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>Q5：画决策树，推荐</t>
+  </si>
+  <si>
+    <t>Q5：决策树，策略</t>
   </si>
   <si>
     <t>2.3效用理论</t>
@@ -1619,9 +1622,9 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2303,21 +2306,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" s="10" customFormat="1" spans="1:4">
-      <c r="A80" s="16" t="s">
+    <row r="80" s="10" customFormat="1" spans="1:6">
+      <c r="A80" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="21" t="s">
         <v>140</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="19" t="s">
@@ -2326,72 +2332,72 @@
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B87" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="C87" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2494,52 +2500,52 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="157">
   <si>
     <t>目录</t>
   </si>
@@ -49,6 +49,9 @@
     <t>17-S2</t>
   </si>
   <si>
+    <t>15-S2</t>
+  </si>
+  <si>
     <t>线性规划 非线性规划</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>Q1：解决LP问题&lt;=</t>
   </si>
   <si>
+    <t>Q1：LP，两步法</t>
+  </si>
+  <si>
     <t>2.2对偶性</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>Q2：L，正定</t>
+  </si>
+  <si>
+    <t>Q1：L，6个μ</t>
   </si>
   <si>
     <t>4.3.5.1 拉格朗日乘数法</t>
@@ -713,25 +722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,15 +1628,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="G24:G27 D24:D27 A24:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" style="12" customWidth="1"/>
     <col min="2" max="2" width="26.2909090909091" style="12" customWidth="1"/>
@@ -1635,10 +1644,11 @@
     <col min="4" max="4" width="18.6727272727273" style="12" customWidth="1"/>
     <col min="5" max="5" width="21.1909090909091" style="12" customWidth="1"/>
     <col min="6" max="6" width="17.5454545454545" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="7" max="7" width="12.2363636363636" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:6">
+    <row r="1" s="7" customFormat="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1657,747 +1667,768 @@
       <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="1" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:7">
       <c r="A5" s="16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:7">
       <c r="A7" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
       <c r="A8" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
       <c r="A11" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" s="10" customFormat="1" spans="1:6">
       <c r="A12" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:6">
-      <c r="A13" s="16" t="s">
-        <v>24</v>
+      <c r="A13" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>26</v>
+      <c r="D13" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" spans="1:6">
-      <c r="A15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>29</v>
+      <c r="A15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
       <c r="A18" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" s="10" customFormat="1" spans="1:6">
-      <c r="A21" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="23" t="s">
+      <c r="A21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="B21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="17" t="s">
         <v>40</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
       <c r="A22" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" s="10" customFormat="1" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:4">
-      <c r="A24" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:7">
+      <c r="A24" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:4">
-      <c r="A25" s="18" t="s">
-        <v>45</v>
+      <c r="D24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:7">
+      <c r="A25" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:4">
-      <c r="A26" s="18" t="s">
+      <c r="D25" s="23" t="s">
         <v>46</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:7">
+      <c r="A26" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" s="10" customFormat="1" spans="1:4">
-      <c r="A27" s="18" t="s">
-        <v>48</v>
+    <row r="27" s="10" customFormat="1" spans="1:7">
+      <c r="A27" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" s="10" customFormat="1" spans="1:2">
       <c r="A28" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
       <c r="A33" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:1">
       <c r="A34" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:6">
       <c r="A35" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="1" spans="1:6">
       <c r="A37" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:6">
-      <c r="A38" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>68</v>
+      <c r="A38" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="1" spans="1:6">
       <c r="A39" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:4">
-      <c r="A40" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>73</v>
+      <c r="A40" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="17" t="s">
-        <v>74</v>
+      <c r="D40" s="23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:6">
-      <c r="A41" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="23" t="s">
+      <c r="A41" s="16" t="s">
         <v>78</v>
       </c>
+      <c r="B41" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>81</v>
+      </c>
       <c r="F41" s="27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:5">
       <c r="A47" s="18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:1">
       <c r="A50" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:6">
-      <c r="A52" s="22" t="s">
-        <v>90</v>
+      <c r="A52" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>92</v>
+      <c r="C52" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>95</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:6">
-      <c r="A54" s="22" t="s">
-        <v>95</v>
+      <c r="A54" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>97</v>
+      <c r="C54" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:5">
-      <c r="A55" s="16" t="s">
-        <v>100</v>
+      <c r="A55" s="22" t="s">
+        <v>103</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="17" t="s">
-        <v>101</v>
+      <c r="D55" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:6">
       <c r="A64" s="20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:6">
       <c r="A65" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:6">
       <c r="A66" s="20" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
-      <c r="A67" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>114</v>
+      <c r="A67" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
       <c r="A68" s="29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="19" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:5">
       <c r="A77" s="18" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:6">
       <c r="A80" s="20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
-      <c r="A86" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>149</v>
+      <c r="A86" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
-      <c r="A87" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>149</v>
+      <c r="A87" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>149</v>
+      <c r="C89" s="23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2420,132 +2451,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
   <si>
     <t>目录</t>
   </si>
@@ -172,10 +172,13 @@
     <t>Q2：L，正定</t>
   </si>
   <si>
+    <t>Q1：L，正定</t>
+  </si>
+  <si>
+    <t>4.3.5.1 拉格朗日乘数法</t>
+  </si>
+  <si>
     <t>Q1：L，6个μ</t>
-  </si>
-  <si>
-    <t>4.3.5.1 拉格朗日乘数法</t>
   </si>
   <si>
     <t>4.3.5.2 Convex 函数</t>
@@ -1633,7 +1636,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="G24:G27 D24:D27 A24:A27"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1877,558 +1880,558 @@
         <v>46</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" s="10" customFormat="1" spans="1:7">
       <c r="A26" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" s="10" customFormat="1" spans="1:7">
       <c r="A27" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" s="10" customFormat="1" spans="1:2">
       <c r="A28" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
       <c r="A33" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:1">
       <c r="A34" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:6">
       <c r="A35" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>62</v>
-      </c>
       <c r="E35" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:5">
       <c r="A36" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="1" spans="1:6">
       <c r="A37" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:6">
       <c r="A38" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="1" spans="1:6">
       <c r="A39" s="24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:4">
       <c r="A40" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:6">
       <c r="A41" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="27" t="s">
         <v>80</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:5">
       <c r="A47" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:1">
       <c r="A50" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:6">
       <c r="A52" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:6">
       <c r="A54" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:5">
       <c r="A55" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:6">
       <c r="A64" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:6">
       <c r="A65" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:6">
       <c r="A66" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>123</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
       <c r="A68" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:5">
       <c r="A77" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:6">
       <c r="A80" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="23" t="s">
-        <v>152</v>
-      </c>
       <c r="C87" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2451,132 +2454,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="159">
   <si>
     <t>目录</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Q5：标准，一致性，最终结果</t>
+  </si>
+  <si>
+    <t>Q2：优先级，一致性比率，整体优先级</t>
   </si>
   <si>
     <t>2.风险下的决策</t>
@@ -1634,9 +1637,9 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="E77 A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2317,121 +2320,124 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" s="10" customFormat="1" spans="1:5">
-      <c r="A77" s="18" t="s">
+    <row r="77" s="10" customFormat="1" spans="1:7">
+      <c r="A77" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="23" t="s">
         <v>138</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:6">
       <c r="A80" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:3">
       <c r="A81" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:1">
       <c r="A84" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="B87" s="23" t="s">
-        <v>153</v>
-      </c>
       <c r="C87" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2519,67 +2525,67 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="163">
   <si>
     <t>目录</t>
   </si>
@@ -325,6 +325,9 @@
     <t>Q4：状态转移图x2+改</t>
   </si>
   <si>
+    <t>Q5：转移图</t>
+  </si>
+  <si>
     <t>7.6.状态概率</t>
   </si>
   <si>
@@ -343,6 +346,9 @@
     <t>Q4：速率平衡方程+稳态概率</t>
   </si>
   <si>
+    <t>Q5：稳态概率</t>
+  </si>
+  <si>
     <t>7.8平均生产效率 R</t>
   </si>
   <si>
@@ -475,6 +481,9 @@
     <t>2.3效用理论</t>
   </si>
   <si>
+    <t>Q3：风险承担者</t>
+  </si>
+  <si>
     <t>2.4冯·诺伊曼-摩根斯坦方法</t>
   </si>
   <si>
@@ -485,6 +494,9 @@
   </si>
   <si>
     <t>2.6信息的价值</t>
+  </si>
+  <si>
+    <t>Q3：信息价值</t>
   </si>
   <si>
     <t>3.不确定性下的决策</t>
@@ -701,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,12 +771,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1114,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,16 +1138,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1150,85 +1156,85 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,10 +1320,10 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,9 +1643,9 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="E77 A77"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1650,7 +1656,7 @@
     <col min="4" max="4" width="18.6727272727273" style="12" customWidth="1"/>
     <col min="5" max="5" width="21.1909090909091" style="12" customWidth="1"/>
     <col min="6" max="6" width="17.5454545454545" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.2363636363636" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.5454545454545" style="12" customWidth="1"/>
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
@@ -1955,7 +1961,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" s="10" customFormat="1" spans="1:6">
+    <row r="35" s="10" customFormat="1" spans="1:7">
       <c r="A35" s="24" t="s">
         <v>62</v>
       </c>
@@ -1972,6 +1978,9 @@
         <v>63</v>
       </c>
       <c r="F35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1998,23 +2007,23 @@
       </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:6">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" s="11" customFormat="1" spans="1:6">
+    <row r="39" s="11" customFormat="1" spans="1:7">
       <c r="A39" s="24" t="s">
         <v>74</v>
       </c>
@@ -2031,6 +2040,9 @@
         <v>75</v>
       </c>
       <c r="F39" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2046,20 +2058,23 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" s="11" customFormat="1" spans="1:6">
-      <c r="A41" s="16" t="s">
+    <row r="41" s="11" customFormat="1" spans="1:7">
+      <c r="A41" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="25" t="s">
         <v>82</v>
       </c>
       <c r="F41" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2116,328 +2131,340 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" s="11" customFormat="1" spans="1:6">
-      <c r="A52" s="16" t="s">
+    <row r="52" s="11" customFormat="1" spans="1:7">
+      <c r="A52" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E52" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="25" t="s">
         <v>95</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:6">
-      <c r="A54" s="16" t="s">
         <v>99</v>
       </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:7">
+      <c r="A54" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="17" t="s">
+      <c r="C54" s="25" t="s">
         <v>101</v>
       </c>
+      <c r="D54" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="E54" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:5">
       <c r="A55" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="23" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:6">
       <c r="A64" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:6">
       <c r="A65" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:6">
       <c r="A66" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
       <c r="A68" s="29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:7">
       <c r="A77" s="22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G77" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:6">
       <c r="A80" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" s="10" customFormat="1" spans="1:7">
+      <c r="A81" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="1:3">
-      <c r="A81" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="19" t="s">
-        <v>142</v>
+      <c r="G81" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" s="10" customFormat="1" spans="1:1">
-      <c r="A84" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" s="10" customFormat="1" spans="1:7">
+      <c r="A84" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="22" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="22" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2460,132 +2487,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="165">
   <si>
     <t>目录</t>
   </si>
@@ -43,6 +43,9 @@
     <t>21-S1</t>
   </si>
   <si>
+    <t>20-S2</t>
+  </si>
+  <si>
     <t>18-S2</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>Q4：平均生产效率 R+改</t>
+  </si>
+  <si>
+    <t>Q5：利润，最大化</t>
   </si>
   <si>
     <t>7.9稳态可用性</t>
@@ -713,7 +719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -771,12 +777,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1114,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,16 +1138,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1156,89 +1156,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1321,9 +1321,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1640,27 +1637,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="32.1818181818182" style="12" customWidth="1"/>
     <col min="2" max="2" width="26.2909090909091" style="12" customWidth="1"/>
     <col min="3" max="3" width="26.3636363636364" style="12" customWidth="1"/>
     <col min="4" max="4" width="18.6727272727273" style="12" customWidth="1"/>
-    <col min="5" max="5" width="21.1909090909091" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.5454545454545" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.5454545454545" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="5" max="5" width="18.4545454545455" customWidth="1"/>
+    <col min="6" max="6" width="21.1909090909091" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.5454545454545" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.5454545454545" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:7">
+    <row r="1" s="7" customFormat="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1682,493 +1680,493 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" spans="1:1">
       <c r="A3" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="10" customFormat="1" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="1" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="1" spans="1:8">
       <c r="A5" s="16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" spans="1:1">
       <c r="A6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" spans="1:8">
       <c r="A7" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="17" t="s">
         <v>17</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" s="10" customFormat="1" spans="1:1">
       <c r="A8" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" s="10" customFormat="1" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" spans="1:1">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" s="9" customFormat="1" spans="1:1">
       <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="10" customFormat="1" spans="1:7">
       <c r="A12" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="21" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" s="10" customFormat="1" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" s="10" customFormat="1" spans="1:7">
       <c r="A13" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="23" t="s">
         <v>28</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" s="9" customFormat="1" spans="1:1">
       <c r="A14" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" s="10" customFormat="1" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" s="10" customFormat="1" spans="1:7">
       <c r="A15" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" s="10" customFormat="1" spans="1:1">
       <c r="A16" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" s="10" customFormat="1" spans="1:1">
       <c r="A17" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
       <c r="A18" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" s="10" customFormat="1" spans="1:1">
       <c r="A19" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" s="10" customFormat="1" spans="1:1">
       <c r="A20" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" s="10" customFormat="1" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" s="10" customFormat="1" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="17" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>42</v>
       </c>
+      <c r="G21" s="17" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
       <c r="A22" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" s="10" customFormat="1" spans="1:1">
       <c r="A23" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" s="10" customFormat="1" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" s="10" customFormat="1" spans="1:8">
       <c r="A24" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" s="10" customFormat="1" spans="1:7">
+      <c r="H24" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" s="10" customFormat="1" spans="1:8">
       <c r="A25" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" s="10" customFormat="1" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" s="10" customFormat="1" spans="1:8">
       <c r="A26" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" s="10" customFormat="1" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" s="10" customFormat="1" spans="1:8">
       <c r="A27" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" s="10" customFormat="1" spans="1:2">
       <c r="A28" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" s="8" customFormat="1" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" s="10" customFormat="1" spans="1:1">
       <c r="A30" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" s="10" customFormat="1" spans="1:1">
       <c r="A31" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:1">
       <c r="A32" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
       <c r="A33" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" s="9" customFormat="1" spans="1:1">
       <c r="A34" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="1" spans="1:8">
       <c r="A35" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>63</v>
+      <c r="F35" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="1" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" s="10" customFormat="1" spans="1:6">
       <c r="A36" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" s="11" customFormat="1" spans="1:6">
+      <c r="F36" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" s="11" customFormat="1" spans="1:7">
       <c r="A37" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="21" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" s="11" customFormat="1" spans="1:6">
+      <c r="G37" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="1" spans="1:7">
       <c r="A38" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" s="11" customFormat="1" spans="1:7">
+      <c r="G38" s="25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="1" spans="1:8">
       <c r="A39" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:4">
       <c r="A40" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" s="11" customFormat="1" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" spans="1:8">
       <c r="A41" s="24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>80</v>
+      <c r="H41" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:1">
       <c r="A42" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" s="11" customFormat="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" spans="1:6">
       <c r="A47" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="19" t="s">
         <v>89</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:1">
       <c r="A50" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" s="11" customFormat="1" spans="1:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" s="11" customFormat="1" spans="1:8">
       <c r="A52" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D52" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>98</v>
+      <c r="H52" s="25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" s="11" customFormat="1" spans="1:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" s="11" customFormat="1" spans="1:8">
       <c r="A54" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="27" t="s">
         <v>103</v>
       </c>
       <c r="F54" s="27" t="s">
@@ -2177,294 +2175,300 @@
       <c r="G54" s="27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" s="11" customFormat="1" spans="1:5">
-      <c r="A55" s="22" t="s">
+      <c r="H54" s="27" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="55" s="11" customFormat="1" spans="1:8">
+      <c r="A55" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E55" s="28" t="s">
+      <c r="D55" s="21" t="s">
         <v>108</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" s="10" customFormat="1" spans="1:6">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" s="10" customFormat="1" spans="1:7">
       <c r="A64" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="1:7">
+      <c r="A65" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="C65" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" s="10" customFormat="1" spans="1:7">
+      <c r="A66" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="65" s="10" customFormat="1" spans="1:6">
-      <c r="A65" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" s="10" customFormat="1" spans="1:6">
-      <c r="A66" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>125</v>
+      <c r="G66" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
-      <c r="A68" s="29" t="s">
-        <v>128</v>
+      <c r="A68" s="28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" s="10" customFormat="1" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" s="10" customFormat="1" spans="1:8">
       <c r="A77" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G77" s="23" t="s">
         <v>141</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" s="10" customFormat="1" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" s="10" customFormat="1" spans="1:7">
       <c r="A80" s="20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" s="21" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" s="10" customFormat="1" spans="1:7">
+        <v>149</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" s="10" customFormat="1" spans="1:8">
       <c r="A81" s="20" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="G81" s="21" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="84" s="10" customFormat="1" spans="1:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" s="10" customFormat="1" spans="1:8">
       <c r="A84" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2487,132 +2491,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
   <si>
     <t>目录</t>
   </si>
@@ -157,12 +157,12 @@
     <t>Q2：L+正定</t>
   </si>
   <si>
+    <t>Q2：L</t>
+  </si>
+  <si>
     <t>Q2：L+负定</t>
   </si>
   <si>
-    <t>Q2：L</t>
-  </si>
-  <si>
     <t>4.3.4.1 拉格朗日乘数法</t>
   </si>
   <si>
@@ -286,6 +286,9 @@
     <t>5.8平均产量 R</t>
   </si>
   <si>
+    <t>Q3:预期每周利润</t>
+  </si>
+  <si>
     <t>5.9稳态可用性</t>
   </si>
   <si>
@@ -457,6 +460,9 @@
     <t>1.1层次分析法</t>
   </si>
   <si>
+    <t>Q4: 标准，一致性，选择</t>
+  </si>
+  <si>
     <t>Q5：标准，一致性，最终结果</t>
   </si>
   <si>
@@ -479,6 +485,9 @@
   </si>
   <si>
     <t>Q5：画决策树，推荐</t>
+  </si>
+  <si>
+    <t>Q5：决策树+实际利润</t>
   </si>
   <si>
     <t>Q5：决策树，策略</t>
@@ -719,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,37 +755,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.5"/>
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1129,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,16 +1153,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1156,89 +1171,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,10 +1302,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1311,20 +1326,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1639,10 +1657,10 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1712,6 +1730,9 @@
       <c r="D5" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="17" t="s">
         <v>13</v>
       </c>
@@ -1734,6 +1755,9 @@
       <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1743,11 +1767,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" spans="1:2">
+    <row r="9" s="10" customFormat="1" spans="1:5">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1778,15 +1805,15 @@
       </c>
     </row>
     <row r="13" s="10" customFormat="1" spans="1:7">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1805,6 +1832,9 @@
       <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="E15" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="F15" s="17" t="s">
         <v>32</v>
       </c>
@@ -1823,10 +1853,10 @@
       </c>
     </row>
     <row r="18" s="10" customFormat="1" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="23" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1850,11 +1880,14 @@
       <c r="C21" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="E21" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="F21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" s="10" customFormat="1" spans="1:1">
@@ -1868,62 +1901,65 @@
       </c>
     </row>
     <row r="24" s="10" customFormat="1" spans="1:8">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" s="10" customFormat="1" spans="1:8">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" s="10" customFormat="1" spans="1:8">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" s="10" customFormat="1" spans="1:8">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" s="10" customFormat="1" spans="1:2">
+    <row r="28" s="10" customFormat="1" spans="1:5">
       <c r="A28" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1948,12 +1984,12 @@
       </c>
     </row>
     <row r="33" s="10" customFormat="1" spans="1:4">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="23" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1963,113 +1999,126 @@
       </c>
     </row>
     <row r="35" s="10" customFormat="1" spans="1:8">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:6">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="23" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="1" spans="1:7">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="E37" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:7">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="E38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="1" spans="1:8">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="E39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="25" t="s">
+      <c r="G39" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="H39" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:4">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:8">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="E41" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G41" s="27" t="s">
@@ -2079,396 +2128,405 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" s="11" customFormat="1" spans="1:1">
-      <c r="A42" s="15" t="s">
+    <row r="42" s="11" customFormat="1" spans="1:5">
+      <c r="A42" s="22" t="s">
         <v>84</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:6">
-      <c r="A47" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="19" t="s">
+      <c r="A47" s="22" t="s">
         <v>90</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:1">
       <c r="A50" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:8">
-      <c r="A52" s="24" t="s">
-        <v>95</v>
+      <c r="A52" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="25" t="s">
+      <c r="C52" s="17" t="s">
         <v>97</v>
       </c>
+      <c r="D52" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="F52" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" s="25" t="s">
         <v>99</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:8">
-      <c r="A54" s="24" t="s">
-        <v>101</v>
+      <c r="A54" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" s="25" t="s">
+      <c r="C54" s="17" t="s">
         <v>103</v>
       </c>
+      <c r="D54" s="17" t="s">
+        <v>104</v>
+      </c>
       <c r="F54" s="27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:8">
       <c r="A55" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
-      <c r="A62" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="19" t="s">
+      <c r="A62" s="22" t="s">
         <v>118</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:7">
       <c r="A64" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="1" spans="1:7">
       <c r="A65" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:7">
       <c r="A66" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="21" t="s">
+    </row>
+    <row r="67" s="10" customFormat="1" spans="1:3">
+      <c r="A67" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" s="10" customFormat="1" spans="1:3">
-      <c r="A67" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>122</v>
+      <c r="C67" s="19" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
       <c r="A68" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
-      <c r="A71" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="19" t="s">
+      <c r="A71" s="23" t="s">
         <v>134</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
-      <c r="A73" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="19" t="s">
+      <c r="A73" s="23" t="s">
         <v>137</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:8">
-      <c r="A77" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F77" s="23" t="s">
+      <c r="A77" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="E77" s="21" t="s">
         <v>143</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="H77" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
-      <c r="A79" s="18" t="s">
-        <v>145</v>
+      <c r="A79" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="19" t="s">
-        <v>146</v>
+      <c r="D79" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:7">
-      <c r="A80" s="20" t="s">
-        <v>147</v>
+      <c r="A80" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="G80" s="21" t="s">
+      <c r="C80" s="26" t="s">
         <v>150</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:8">
       <c r="A81" s="20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
-      <c r="A82" s="18" t="s">
-        <v>153</v>
+      <c r="A82" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="B82" s="10"/>
-      <c r="C82" s="19" t="s">
-        <v>154</v>
+      <c r="C82" s="23" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:8">
-      <c r="A84" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="H84" s="19" t="s">
-        <v>157</v>
+      <c r="A84" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
-      <c r="A86" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>160</v>
+      <c r="A86" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
-      <c r="A87" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>160</v>
+      <c r="A87" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
-      <c r="A88" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>160</v>
+      <c r="A88" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B89" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>160</v>
+      <c r="C89" s="19" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2491,132 +2549,132 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="169">
   <si>
     <t>目录</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Q4：调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 若的方法    </t>
   </si>
   <si>
     <t>5.M/M/m 排队模型</t>
@@ -1658,9 +1661,9 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2307,7 +2310,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" s="10" customFormat="1" spans="1:7">
+    <row r="65" s="10" customFormat="1" spans="1:8">
       <c r="A65" s="20" t="s">
         <v>126</v>
       </c>
@@ -2320,10 +2323,13 @@
       <c r="G65" s="21" t="s">
         <v>128</v>
       </c>
+      <c r="H65" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="66" s="10" customFormat="1" spans="1:7">
       <c r="A66" s="20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>122</v>
@@ -2337,7 +2343,7 @@
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
       <c r="A67" s="18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>122</v>
@@ -2348,185 +2354,185 @@
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
       <c r="A68" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="1" spans="1:1">
       <c r="A69" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="1" spans="1:1">
       <c r="A72" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="1" spans="1:1">
       <c r="A74" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:8">
       <c r="A77" s="20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:7">
       <c r="A80" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G80" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:8">
       <c r="A81" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:8">
       <c r="A84" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="19" t="s">
-        <v>163</v>
-      </c>
       <c r="C87" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2589,92 +2595,92 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="172">
   <si>
     <t>目录</t>
   </si>
@@ -229,6 +229,9 @@
     <t>Q3: 状态空间x2，无穷状空</t>
   </si>
   <si>
+    <t>Q4：状态空间</t>
+  </si>
+  <si>
     <t>5.2.马尔可夫性质</t>
   </si>
   <si>
@@ -262,6 +265,9 @@
     <t>Q3：转移概率矩阵P</t>
   </si>
   <si>
+    <t>Q4：转移概率矩阵P</t>
+  </si>
+  <si>
     <t>5.6.状态概率</t>
   </si>
   <si>
@@ -283,6 +289,9 @@
     <t>Q3：稳概+评价并建议</t>
   </si>
   <si>
+    <t>Q4：稳态概率</t>
+  </si>
+  <si>
     <t>5.8平均产量 R</t>
   </si>
   <si>
@@ -304,9 +313,6 @@
     <t>7.1定义</t>
   </si>
   <si>
-    <t>Q4：状态空间</t>
-  </si>
-  <si>
     <t>7.2.马尔可夫性质</t>
   </si>
   <si>
@@ -346,9 +352,6 @@
     <t>Q4：稳态概率x2</t>
   </si>
   <si>
-    <t>Q4：稳态概率</t>
-  </si>
-  <si>
     <t>Q4：速率平衡方程+稳态概率</t>
   </si>
   <si>
@@ -418,9 +421,6 @@
     <t>Q4：调整</t>
   </si>
   <si>
-    <t xml:space="preserve"> 若的方法    </t>
-  </si>
-  <si>
     <t>5.M/M/m 排队模型</t>
   </si>
   <si>
@@ -433,6 +433,9 @@
     <t>8.空的概率 π0</t>
   </si>
   <si>
+    <t>Q4：没有顾客的时间比例</t>
+  </si>
+  <si>
     <t>9.k个顾客的概率 πk</t>
   </si>
   <si>
@@ -445,6 +448,9 @@
     <t>11.排队的平均顾客数 Q</t>
   </si>
   <si>
+    <t>Q4：Q</t>
+  </si>
+  <si>
     <t>12.顾客在系统的平均时间 W</t>
   </si>
   <si>
@@ -452,6 +458,9 @@
   </si>
   <si>
     <t>13.排队的平均等待时间 D</t>
+  </si>
+  <si>
+    <t>Q4： D</t>
   </si>
   <si>
     <t>决策分析</t>
@@ -731,7 +740,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,18 +786,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1129,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1156,16 +1153,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1174,89 +1171,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1329,23 +1326,14 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1660,10 +1648,10 @@
   <sheetPr/>
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H65" sqref="H65"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2017,313 +2005,310 @@
       <c r="F35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H35" s="24" t="s">
-        <v>64</v>
+      <c r="H35" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" s="10" customFormat="1" spans="1:6">
       <c r="A36" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="1" spans="1:7">
-      <c r="A37" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="26" t="s">
-        <v>70</v>
+      <c r="C37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="F37" s="11"/>
-      <c r="G37" s="26" t="s">
-        <v>71</v>
+      <c r="G37" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:7">
       <c r="A38" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="1" spans="1:8">
       <c r="A39" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:8">
       <c r="A41" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F41" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>81</v>
+      <c r="H41" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:5">
       <c r="A42" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="1" spans="1:1">
       <c r="A43" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" s="11" customFormat="1" spans="1:1">
       <c r="A44" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" s="11" customFormat="1" spans="1:1">
       <c r="A45" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" s="9" customFormat="1" spans="1:1">
       <c r="A46" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" s="11" customFormat="1" spans="1:6">
       <c r="A47" s="22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" s="11" customFormat="1" spans="1:1">
       <c r="A48" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" s="11" customFormat="1" spans="1:1">
       <c r="A49" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" s="11" customFormat="1" spans="1:1">
       <c r="A50" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" s="11" customFormat="1" spans="1:1">
       <c r="A51" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" s="11" customFormat="1" spans="1:8">
       <c r="A52" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="H52" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" s="11" customFormat="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" s="11" customFormat="1" spans="1:8">
       <c r="A54" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="F54" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>107</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="55" s="11" customFormat="1" spans="1:8">
       <c r="A55" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H55" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" s="11" customFormat="1" spans="1:1">
       <c r="A56" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" s="11" customFormat="1" spans="1:1">
       <c r="A57" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" s="10" customFormat="1" spans="1:1">
       <c r="A58" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="1" spans="1:1">
       <c r="A59" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" s="10" customFormat="1" spans="1:1">
       <c r="A60" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" s="8" customFormat="1" spans="1:1">
       <c r="A61" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="1" spans="1:2">
       <c r="A62" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="1" spans="1:1">
       <c r="A63" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="1" spans="1:7">
       <c r="A64" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" s="10" customFormat="1" spans="1:7">
+      <c r="A65" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G64" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" s="10" customFormat="1" spans="1:8">
-      <c r="A65" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>122</v>
-      </c>
       <c r="C65" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="10" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2332,13 +2317,13 @@
         <v>130</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="1" spans="1:3">
@@ -2346,193 +2331,202 @@
         <v>131</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="1" spans="1:1">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" s="10" customFormat="1" spans="1:1">
-      <c r="A69" s="10" t="s">
+    <row r="69" s="10" customFormat="1" spans="1:7">
+      <c r="A69" s="23" t="s">
         <v>133</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="1" spans="1:1">
       <c r="A70" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="1" spans="1:2">
       <c r="A71" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" s="10" customFormat="1" spans="1:1">
-      <c r="A72" s="10" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="72" s="10" customFormat="1" spans="1:7">
+      <c r="A72" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="1" spans="1:2">
       <c r="A73" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" s="10" customFormat="1" spans="1:1">
-      <c r="A74" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="1:7">
+      <c r="A74" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="75" s="8" customFormat="1" spans="1:1">
       <c r="A75" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" s="9" customFormat="1" spans="1:1">
       <c r="A76" s="14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="1" spans="1:8">
       <c r="A77" s="20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H77" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" s="9" customFormat="1" spans="1:1">
       <c r="A78" s="14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="1" spans="1:4">
       <c r="A79" s="22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="1" spans="1:7">
-      <c r="A80" s="25" t="s">
-        <v>150</v>
+      <c r="A80" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="B80" s="10"/>
-      <c r="C80" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G80" s="26" t="s">
+      <c r="C80" s="25" t="s">
         <v>154</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="1" spans="1:8">
       <c r="A81" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="21" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H81" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="1" spans="1:3">
       <c r="A82" s="22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="23" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="1" spans="1:1">
       <c r="A83" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="1" spans="1:8">
       <c r="A84" s="22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" s="9" customFormat="1" spans="1:1">
       <c r="A85" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="1" spans="1:3">
       <c r="A86" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="1" spans="1:3">
       <c r="A87" s="18" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="1" spans="1:2">
       <c r="A88" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="1" spans="1:3">
       <c r="A89" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B89" s="19" t="s">
-        <v>164</v>
-      </c>
       <c r="C89" s="19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="1" spans="1:1">
       <c r="A90" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2555,42 +2549,42 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
@@ -2605,82 +2599,82 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -1649,9 +1649,9 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/3.Understand/EE6204-热门考点分析.xlsx
+++ b/3.Understand/EE6204-热门考点分析.xlsx
@@ -1649,9 +1649,9 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
